--- a/Config Files/AOC-4_nodes_seperated_config.xlsx
+++ b/Config Files/AOC-4_nodes_seperated_config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCA Portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76D137F-C9E3-4555-9561-0ADCA3D13A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FC0484-F32A-4DF0-A9A4-32D78FB39125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$180</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="268">
   <si>
     <t>Field_Name</t>
   </si>
@@ -698,12 +698,6 @@
     <t>PROF_LOSS_DO_PR</t>
   </si>
   <si>
-    <t xml:space="preserve">auditor </t>
-  </si>
-  <si>
-    <t>auditor_name</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -713,69 +707,12 @@
     <t>T_ZNCA_AOC_4_S10/DATA</t>
   </si>
   <si>
-    <t>NAME_OF_MEMBER</t>
-  </si>
-  <si>
     <t>Common</t>
   </si>
   <si>
     <t>financials_auditor</t>
   </si>
   <si>
-    <t>auditor_firm_name</t>
-  </si>
-  <si>
-    <t>NAME_AUDT_AUDTRF</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>IT_PAN</t>
-  </si>
-  <si>
-    <t>membership_number</t>
-  </si>
-  <si>
-    <t>MEMBERSHIP_NUMBR</t>
-  </si>
-  <si>
-    <t>firm_registration_number</t>
-  </si>
-  <si>
-    <t>MEMBERSHIP_NUM_A</t>
-  </si>
-  <si>
-    <t>address1</t>
-  </si>
-  <si>
-    <t>ADDRESS_LINE_I</t>
-  </si>
-  <si>
-    <t>address is combination of all fields</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>address2</t>
-  </si>
-  <si>
-    <t>ADDRESS_LINE_II</t>
-  </si>
-  <si>
-    <t>CITY</t>
-  </si>
-  <si>
-    <t>STATE</t>
-  </si>
-  <si>
-    <t>COUNTRY</t>
-  </si>
-  <si>
-    <t>PIN_CODE</t>
-  </si>
-  <si>
     <t>auditor_comments</t>
   </si>
   <si>
@@ -885,13 +822,34 @@
   </si>
   <si>
     <t>Stock_in_trade</t>
+  </si>
+  <si>
+    <t>revenue_breakup</t>
+  </si>
+  <si>
+    <t>revenue_from_operations</t>
+  </si>
+  <si>
+    <t>financials_pnl_revenue_breakup</t>
+  </si>
+  <si>
+    <t>revenue_from_sale_of_products</t>
+  </si>
+  <si>
+    <t>revenue_breakup-PREVIOUS YEAR</t>
+  </si>
+  <si>
+    <t>NAME_OF_MEMBER, NAME_AUDT_AUDTRF, IT_PAN, MEMBERSHIP_NUMBR, MEMBERSHIP_NUM_A, ADDRESS_LINE_I, ADDRESS_LINE_II, CITY, STATE, COUNTRY, PIN_CODE</t>
+  </si>
+  <si>
+    <t>auditor_name, auditor_firm_name, pan, membership_number, firm_registration_number, address</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -970,8 +928,21 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF343434"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -993,6 +964,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1085,7 +1062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1112,9 +1089,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1127,7 +1101,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1158,9 +1131,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1441,11 +1429,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K203"/>
+  <dimension ref="A1:L196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F189" sqref="F189"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,13 +1469,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1495,8 +1483,8 @@
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1517,14 +1505,14 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1545,50 +1533,50 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="15" t="s">
+      <c r="H4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G5" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G6" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="21" t="s">
+      <c r="H6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1616,10 +1604,10 @@
       <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="15" t="s">
+      <c r="H8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1642,50 +1630,50 @@
       <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="15" t="s">
+      <c r="H9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>225</v>
-      </c>
-      <c r="G10" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G11" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="21" t="s">
+      <c r="H11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1713,13 +1701,13 @@
       <c r="F13" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="14" t="s">
+      <c r="H13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1742,13 +1730,13 @@
       <c r="F14" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="14" t="s">
+      <c r="H14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1771,13 +1759,13 @@
       <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="14" t="s">
+      <c r="H15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1800,13 +1788,13 @@
       <c r="F16" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="14" t="s">
+      <c r="H16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1829,13 +1817,13 @@
       <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="14" t="s">
+      <c r="H17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1858,13 +1846,13 @@
       <c r="F18" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="14" t="s">
+      <c r="H18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="15" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1887,13 +1875,13 @@
       <c r="F19" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="14" t="s">
+      <c r="H19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1916,13 +1904,13 @@
       <c r="F20" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="14" t="s">
+      <c r="H20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1945,13 +1933,13 @@
       <c r="F21" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="14" t="s">
+      <c r="H21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1974,13 +1962,13 @@
       <c r="F22" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="14" t="s">
+      <c r="H22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2003,13 +1991,13 @@
       <c r="F23" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="14" t="s">
+      <c r="H23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="15" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2032,13 +2020,13 @@
       <c r="F24" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="14" t="s">
+      <c r="H24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2061,13 +2049,13 @@
       <c r="F25" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="14" t="s">
+      <c r="H25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2090,13 +2078,13 @@
       <c r="F26" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="14" t="s">
+      <c r="H26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2119,13 +2107,13 @@
       <c r="F27" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="14" t="s">
+      <c r="H27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="15" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2153,13 +2141,13 @@
       <c r="F29" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="14" t="s">
+      <c r="H29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="16" t="s">
+      <c r="J29" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2182,13 +2170,13 @@
       <c r="F30" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="14" t="s">
+      <c r="H30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="J30" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2211,13 +2199,13 @@
       <c r="F31" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="14" t="s">
+      <c r="H31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="16" t="s">
+      <c r="J31" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2240,13 +2228,13 @@
       <c r="F32" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="14" t="s">
+      <c r="H32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2269,13 +2257,13 @@
       <c r="F33" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="14" t="s">
+      <c r="H33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="16" t="s">
+      <c r="J33" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2298,13 +2286,13 @@
       <c r="F34" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="14" t="s">
+      <c r="H34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J34" s="16" t="s">
+      <c r="J34" s="15" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2327,13 +2315,13 @@
       <c r="F35" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="14" t="s">
+      <c r="H35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J35" s="16" t="s">
+      <c r="J35" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2356,13 +2344,13 @@
       <c r="F36" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="14" t="s">
+      <c r="H36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J36" s="16" t="s">
+      <c r="J36" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2385,13 +2373,13 @@
       <c r="F37" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="14" t="s">
+      <c r="H37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J37" s="16" t="s">
+      <c r="J37" s="15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2414,13 +2402,13 @@
       <c r="F38" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="14" t="s">
+      <c r="H38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J38" s="16" t="s">
+      <c r="J38" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2443,13 +2431,13 @@
       <c r="F39" t="s">
         <v>25</v>
       </c>
-      <c r="H39" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="14" t="s">
+      <c r="H39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J39" s="16" t="s">
+      <c r="J39" s="15" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2472,13 +2460,13 @@
       <c r="F40" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="14" t="s">
+      <c r="H40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J40" s="16" t="s">
+      <c r="J40" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2501,13 +2489,13 @@
       <c r="F41" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="14" t="s">
+      <c r="H41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J41" s="16" t="s">
+      <c r="J41" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2530,13 +2518,13 @@
       <c r="F42" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="14" t="s">
+      <c r="H42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J42" s="16" t="s">
+      <c r="J42" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2559,13 +2547,13 @@
       <c r="F43" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="14" t="s">
+      <c r="H43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J43" s="16" t="s">
+      <c r="J43" s="15" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2593,13 +2581,13 @@
       <c r="F45" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="14" t="s">
+      <c r="H45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J45" s="16" t="s">
+      <c r="J45" s="15" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2622,13 +2610,13 @@
       <c r="F46" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="14" t="s">
+      <c r="H46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J46" s="16" t="s">
+      <c r="J46" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2651,13 +2639,13 @@
       <c r="F47" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="14" t="s">
+      <c r="H47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J47" s="16" t="s">
+      <c r="J47" s="15" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2680,13 +2668,13 @@
       <c r="F48" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="14" t="s">
+      <c r="H48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J48" s="16" t="s">
+      <c r="J48" s="15" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2709,13 +2697,13 @@
       <c r="F49" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="14" t="s">
+      <c r="H49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J49" s="16" t="s">
+      <c r="J49" s="15" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2738,13 +2726,13 @@
       <c r="F50" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="14" t="s">
+      <c r="H50" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J50" s="16" t="s">
+      <c r="J50" s="15" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2767,13 +2755,13 @@
       <c r="F51" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="14" t="s">
+      <c r="H51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J51" s="16" t="s">
+      <c r="J51" s="15" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2796,13 +2784,13 @@
       <c r="F52" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="14" t="s">
+      <c r="H52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J52" s="16" t="s">
+      <c r="J52" s="15" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2825,13 +2813,13 @@
       <c r="F53" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="14" t="s">
+      <c r="H53" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J53" s="16" t="s">
+      <c r="J53" s="15" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2854,13 +2842,13 @@
       <c r="F54" t="s">
         <v>15</v>
       </c>
-      <c r="H54" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" s="14" t="s">
+      <c r="H54" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J54" s="16" t="s">
+      <c r="J54" s="15" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2883,13 +2871,13 @@
       <c r="F55" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I55" s="14" t="s">
+      <c r="H55" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J55" s="16" t="s">
+      <c r="J55" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2912,13 +2900,13 @@
       <c r="F56" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" s="14" t="s">
+      <c r="H56" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J56" s="16" t="s">
+      <c r="J56" s="15" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2941,13 +2929,13 @@
       <c r="F57" t="s">
         <v>15</v>
       </c>
-      <c r="H57" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="14" t="s">
+      <c r="H57" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J57" s="16" t="s">
+      <c r="J57" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2975,13 +2963,13 @@
       <c r="F59" t="s">
         <v>25</v>
       </c>
-      <c r="H59" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="14" t="s">
+      <c r="H59" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J59" s="16" t="s">
+      <c r="J59" s="15" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3004,13 +2992,13 @@
       <c r="F60" t="s">
         <v>25</v>
       </c>
-      <c r="H60" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="14" t="s">
+      <c r="H60" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J60" s="16" t="s">
+      <c r="J60" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3033,13 +3021,13 @@
       <c r="F61" t="s">
         <v>25</v>
       </c>
-      <c r="H61" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="14" t="s">
+      <c r="H61" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J61" s="16" t="s">
+      <c r="J61" s="15" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3062,13 +3050,13 @@
       <c r="F62" t="s">
         <v>25</v>
       </c>
-      <c r="H62" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="14" t="s">
+      <c r="H62" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J62" s="16" t="s">
+      <c r="J62" s="15" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3091,13 +3079,13 @@
       <c r="F63" t="s">
         <v>25</v>
       </c>
-      <c r="H63" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" s="14" t="s">
+      <c r="H63" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J63" s="16" t="s">
+      <c r="J63" s="15" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3120,13 +3108,13 @@
       <c r="F64" t="s">
         <v>25</v>
       </c>
-      <c r="H64" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" s="14" t="s">
+      <c r="H64" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J64" s="16" t="s">
+      <c r="J64" s="15" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3149,13 +3137,13 @@
       <c r="F65" t="s">
         <v>25</v>
       </c>
-      <c r="H65" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I65" s="14" t="s">
+      <c r="H65" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J65" s="16" t="s">
+      <c r="J65" s="15" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3178,13 +3166,13 @@
       <c r="F66" t="s">
         <v>25</v>
       </c>
-      <c r="H66" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I66" s="14" t="s">
+      <c r="H66" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J66" s="16" t="s">
+      <c r="J66" s="15" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3207,13 +3195,13 @@
       <c r="F67" t="s">
         <v>25</v>
       </c>
-      <c r="H67" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I67" s="14" t="s">
+      <c r="H67" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J67" s="16" t="s">
+      <c r="J67" s="15" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3236,13 +3224,13 @@
       <c r="F68" t="s">
         <v>25</v>
       </c>
-      <c r="H68" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" s="14" t="s">
+      <c r="H68" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J68" s="16" t="s">
+      <c r="J68" s="15" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3265,13 +3253,13 @@
       <c r="F69" t="s">
         <v>25</v>
       </c>
-      <c r="H69" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="14" t="s">
+      <c r="H69" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J69" s="16" t="s">
+      <c r="J69" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3294,13 +3282,13 @@
       <c r="F70" t="s">
         <v>25</v>
       </c>
-      <c r="H70" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I70" s="14" t="s">
+      <c r="H70" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J70" s="16" t="s">
+      <c r="J70" s="15" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3323,13 +3311,13 @@
       <c r="F71" t="s">
         <v>25</v>
       </c>
-      <c r="H71" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I71" s="14" t="s">
+      <c r="H71" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J71" s="16" t="s">
+      <c r="J71" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3357,13 +3345,13 @@
       <c r="F73" t="s">
         <v>15</v>
       </c>
-      <c r="H73" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I73" s="14" t="s">
+      <c r="H73" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J73" s="16" t="s">
+      <c r="J73" s="15" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3386,13 +3374,13 @@
       <c r="F74" t="s">
         <v>15</v>
       </c>
-      <c r="H74" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I74" s="14" t="s">
+      <c r="H74" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J74" s="20" t="s">
+      <c r="J74" s="18" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3415,13 +3403,13 @@
       <c r="F75" t="s">
         <v>15</v>
       </c>
-      <c r="H75" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I75" s="14" t="s">
+      <c r="H75" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J75" s="20" t="s">
+      <c r="J75" s="18" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3444,13 +3432,13 @@
       <c r="F76" t="s">
         <v>15</v>
       </c>
-      <c r="H76" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I76" s="14" t="s">
+      <c r="H76" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J76" s="21" t="s">
+      <c r="J76" s="19" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3473,13 +3461,13 @@
       <c r="F77" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I77" s="14" t="s">
+      <c r="H77" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J77" s="21" t="s">
+      <c r="J77" s="19" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3502,13 +3490,13 @@
       <c r="F78" t="s">
         <v>15</v>
       </c>
-      <c r="H78" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I78" s="14" t="s">
+      <c r="H78" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J78" s="20" t="s">
+      <c r="J78" s="18" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3531,13 +3519,13 @@
       <c r="F79" t="s">
         <v>15</v>
       </c>
-      <c r="H79" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I79" s="14" t="s">
+      <c r="H79" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J79" s="20" t="s">
+      <c r="J79" s="18" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3560,13 +3548,13 @@
       <c r="F80" t="s">
         <v>15</v>
       </c>
-      <c r="H80" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I80" s="14" t="s">
+      <c r="H80" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J80" s="20" t="s">
+      <c r="J80" s="18" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3574,7 +3562,7 @@
       <c r="A81" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H81" s="14"/>
+      <c r="H81" s="13"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -3595,13 +3583,13 @@
       <c r="F82" t="s">
         <v>25</v>
       </c>
-      <c r="H82" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I82" s="14" t="s">
+      <c r="H82" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J82" s="16" t="s">
+      <c r="J82" s="15" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3624,13 +3612,13 @@
       <c r="F83" t="s">
         <v>25</v>
       </c>
-      <c r="H83" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" s="14" t="s">
+      <c r="H83" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J83" s="20" t="s">
+      <c r="J83" s="18" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3653,13 +3641,13 @@
       <c r="F84" t="s">
         <v>25</v>
       </c>
-      <c r="H84" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I84" s="14" t="s">
+      <c r="H84" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J84" s="20" t="s">
+      <c r="J84" s="18" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3682,13 +3670,13 @@
       <c r="F85" t="s">
         <v>25</v>
       </c>
-      <c r="H85" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I85" s="14" t="s">
+      <c r="H85" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J85" s="21" t="s">
+      <c r="J85" s="19" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3711,13 +3699,13 @@
       <c r="F86" t="s">
         <v>25</v>
       </c>
-      <c r="H86" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" s="14" t="s">
+      <c r="H86" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J86" s="21" t="s">
+      <c r="J86" s="19" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3740,13 +3728,13 @@
       <c r="F87" t="s">
         <v>25</v>
       </c>
-      <c r="H87" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I87" s="14" t="s">
+      <c r="H87" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J87" s="20" t="s">
+      <c r="J87" s="18" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3769,13 +3757,13 @@
       <c r="F88" t="s">
         <v>25</v>
       </c>
-      <c r="H88" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I88" s="14" t="s">
+      <c r="H88" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J88" s="20" t="s">
+      <c r="J88" s="18" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3798,13 +3786,13 @@
       <c r="F89" t="s">
         <v>25</v>
       </c>
-      <c r="H89" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89" s="14" t="s">
+      <c r="H89" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J89" s="20" t="s">
+      <c r="J89" s="18" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3817,13 +3805,13 @@
       <c r="A91" t="s">
         <v>131</v>
       </c>
-      <c r="B91" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="23" t="s">
+      <c r="B91" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="21" t="s">
         <v>132</v>
       </c>
       <c r="E91" t="s">
@@ -3832,13 +3820,13 @@
       <c r="F91" t="s">
         <v>15</v>
       </c>
-      <c r="H91" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I91" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J91" s="24" t="s">
+      <c r="H91" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J91" s="22" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3846,13 +3834,13 @@
       <c r="A92" t="s">
         <v>135</v>
       </c>
-      <c r="B92" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="23" t="s">
+      <c r="B92" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="21" t="s">
         <v>132</v>
       </c>
       <c r="E92" t="s">
@@ -3861,13 +3849,13 @@
       <c r="F92" t="s">
         <v>15</v>
       </c>
-      <c r="H92" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I92" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J92" s="25" t="s">
+      <c r="H92" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J92" s="23" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3875,13 +3863,13 @@
       <c r="A93" t="s">
         <v>137</v>
       </c>
-      <c r="B93" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="23" t="s">
+      <c r="B93" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="21" t="s">
         <v>132</v>
       </c>
       <c r="E93" t="s">
@@ -3890,13 +3878,13 @@
       <c r="F93" t="s">
         <v>15</v>
       </c>
-      <c r="H93" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I93" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J93" s="25" t="s">
+      <c r="H93" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J93" s="23" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3904,13 +3892,13 @@
       <c r="A94" t="s">
         <v>139</v>
       </c>
-      <c r="B94" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="23" t="s">
+      <c r="B94" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="21" t="s">
         <v>132</v>
       </c>
       <c r="E94" t="s">
@@ -3919,13 +3907,13 @@
       <c r="F94" t="s">
         <v>15</v>
       </c>
-      <c r="H94" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I94" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J94" s="25" t="s">
+      <c r="H94" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J94" s="23" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3933,13 +3921,13 @@
       <c r="A95" t="s">
         <v>141</v>
       </c>
-      <c r="B95" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="23" t="s">
+      <c r="B95" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="21" t="s">
         <v>132</v>
       </c>
       <c r="E95" t="s">
@@ -3948,13 +3936,13 @@
       <c r="F95" t="s">
         <v>15</v>
       </c>
-      <c r="H95" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I95" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J95" s="25" t="s">
+      <c r="H95" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J95" s="23" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3962,13 +3950,13 @@
       <c r="A96" t="s">
         <v>143</v>
       </c>
-      <c r="B96" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="23" t="s">
+      <c r="B96" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="21" t="s">
         <v>132</v>
       </c>
       <c r="E96" t="s">
@@ -3977,13 +3965,13 @@
       <c r="F96" t="s">
         <v>15</v>
       </c>
-      <c r="H96" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I96" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J96" s="25" t="s">
+      <c r="H96" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J96" s="23" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4006,13 +3994,13 @@
       <c r="F97" t="s">
         <v>15</v>
       </c>
-      <c r="H97" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I97" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J97" s="20" t="s">
+      <c r="H97" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J97" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4035,13 +4023,13 @@
       <c r="F98" t="s">
         <v>15</v>
       </c>
-      <c r="H98" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I98" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J98" s="16" t="s">
+      <c r="H98" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J98" s="15" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4064,13 +4052,13 @@
       <c r="F99" t="s">
         <v>15</v>
       </c>
-      <c r="H99" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I99" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J99" s="16" t="s">
+      <c r="H99" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J99" s="15" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4093,13 +4081,13 @@
       <c r="F100" t="s">
         <v>15</v>
       </c>
-      <c r="H100" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J100" s="26" t="s">
+      <c r="H100" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J100" s="24" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4122,19 +4110,19 @@
       <c r="F101" t="s">
         <v>15</v>
       </c>
-      <c r="H101" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I101" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J101" s="26" t="s">
+      <c r="H101" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J101" s="24" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
@@ -4151,13 +4139,13 @@
       <c r="F102" t="s">
         <v>15</v>
       </c>
-      <c r="H102" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J102" s="26" t="s">
+      <c r="H102" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J102" s="24" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4175,18 +4163,18 @@
         <v>115</v>
       </c>
       <c r="E103" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="F103" t="s">
         <v>15</v>
       </c>
-      <c r="H103" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I103" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J103" s="27" t="s">
+      <c r="H103" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J103" s="25" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4209,19 +4197,19 @@
       <c r="F104" t="s">
         <v>15</v>
       </c>
-      <c r="H104" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I104" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J104" s="16" t="s">
+      <c r="H104" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J104" s="15" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B105" t="s">
         <v>11</v>
@@ -4238,10 +4226,10 @@
       <c r="F105" t="s">
         <v>15</v>
       </c>
-      <c r="H105" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I105" s="14" t="s">
+      <c r="H105" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="13" t="s">
         <v>134</v>
       </c>
       <c r="J105" s="2" t="s">
@@ -4250,7 +4238,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
@@ -4267,10 +4255,10 @@
       <c r="F106" t="s">
         <v>15</v>
       </c>
-      <c r="H106" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I106" s="14" t="s">
+      <c r="H106" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" s="13" t="s">
         <v>134</v>
       </c>
       <c r="J106" s="2" t="s">
@@ -4279,7 +4267,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
@@ -4296,10 +4284,10 @@
       <c r="F107" t="s">
         <v>15</v>
       </c>
-      <c r="H107" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I107" s="14" t="s">
+      <c r="H107" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" s="13" t="s">
         <v>134</v>
       </c>
       <c r="J107" s="2" t="s">
@@ -4308,7 +4296,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
@@ -4325,10 +4313,10 @@
       <c r="F108" t="s">
         <v>15</v>
       </c>
-      <c r="H108" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I108" s="14" t="s">
+      <c r="H108" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="13" t="s">
         <v>134</v>
       </c>
       <c r="J108" s="2" t="s">
@@ -4354,13 +4342,13 @@
       <c r="F109" t="s">
         <v>15</v>
       </c>
-      <c r="H109" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I109" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J109" s="28" t="s">
+      <c r="H109" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J109" s="26" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4378,18 +4366,18 @@
         <v>115</v>
       </c>
       <c r="E110" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="F110" t="s">
         <v>15</v>
       </c>
-      <c r="H110" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I110" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J110" s="20" t="s">
+      <c r="H110" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J110" s="18" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4407,18 +4395,18 @@
         <v>115</v>
       </c>
       <c r="E111" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="F111" t="s">
         <v>15</v>
       </c>
-      <c r="H111" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I111" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J111" s="16" t="s">
+      <c r="H111" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J111" s="15" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4436,18 +4424,18 @@
         <v>115</v>
       </c>
       <c r="E112" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="F112" t="s">
         <v>15</v>
       </c>
-      <c r="H112" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I112" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J112" s="29" t="s">
+      <c r="H112" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J112" s="27" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4470,13 +4458,13 @@
       <c r="F113" t="s">
         <v>15</v>
       </c>
-      <c r="H113" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I113" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J113" s="16" t="s">
+      <c r="H113" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J113" s="15" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4499,13 +4487,13 @@
       <c r="F114" t="s">
         <v>15</v>
       </c>
-      <c r="H114" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I114" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J114" s="16" t="s">
+      <c r="H114" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J114" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4528,13 +4516,13 @@
       <c r="F115" t="s">
         <v>15</v>
       </c>
-      <c r="H115" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I115" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J115" s="16" t="s">
+      <c r="H115" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I115" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J115" s="15" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4552,18 +4540,18 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="F116" t="s">
         <v>15</v>
       </c>
-      <c r="H116" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I116" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J116" s="16" t="s">
+      <c r="H116" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I116" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J116" s="15" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4586,13 +4574,13 @@
       <c r="F117" t="s">
         <v>15</v>
       </c>
-      <c r="H117" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I117" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J117" s="16" t="s">
+      <c r="H117" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J117" s="15" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4610,18 +4598,18 @@
         <v>115</v>
       </c>
       <c r="E118" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="F118" t="s">
         <v>15</v>
       </c>
-      <c r="H118" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I118" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J118" s="16" t="s">
+      <c r="H118" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J118" s="15" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4644,10 +4632,10 @@
       <c r="F119" t="s">
         <v>15</v>
       </c>
-      <c r="H119" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I119" s="14" t="s">
+      <c r="H119" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I119" s="13" t="s">
         <v>134</v>
       </c>
       <c r="J119" s="1" t="s">
@@ -4673,10 +4661,10 @@
       <c r="F120" t="s">
         <v>15</v>
       </c>
-      <c r="H120" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I120" s="14" t="s">
+      <c r="H120" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I120" s="13" t="s">
         <v>134</v>
       </c>
       <c r="J120" s="1" t="s">
@@ -4702,13 +4690,13 @@
       <c r="F121" t="s">
         <v>15</v>
       </c>
-      <c r="H121" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I121" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J121" s="20" t="s">
+      <c r="H121" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I121" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J121" s="18" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4731,13 +4719,13 @@
       <c r="F122" t="s">
         <v>15</v>
       </c>
-      <c r="H122" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I122" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J122" s="16" t="s">
+      <c r="H122" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J122" s="15" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4760,13 +4748,13 @@
       <c r="F123" t="s">
         <v>15</v>
       </c>
-      <c r="H123" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I123" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J123" s="16" t="s">
+      <c r="H123" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J123" s="15" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4784,18 +4772,18 @@
         <v>115</v>
       </c>
       <c r="E124" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="F124" t="s">
         <v>15</v>
       </c>
-      <c r="H124" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I124" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J124" s="20" t="s">
+      <c r="H124" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J124" s="18" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4803,19 +4791,19 @@
       <c r="A125" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="J125" s="16"/>
+      <c r="J125" s="15"/>
     </row>
     <row r="126" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>131</v>
       </c>
-      <c r="B126" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="23" t="s">
+      <c r="B126" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="21" t="s">
         <v>132</v>
       </c>
       <c r="E126" t="s">
@@ -4824,13 +4812,13 @@
       <c r="F126" t="s">
         <v>25</v>
       </c>
-      <c r="H126" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I126" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J126" s="24" t="s">
+      <c r="H126" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J126" s="22" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4838,13 +4826,13 @@
       <c r="A127" t="s">
         <v>135</v>
       </c>
-      <c r="B127" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="23" t="s">
+      <c r="B127" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="21" t="s">
         <v>132</v>
       </c>
       <c r="E127" t="s">
@@ -4853,13 +4841,13 @@
       <c r="F127" t="s">
         <v>25</v>
       </c>
-      <c r="H127" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I127" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J127" s="25" t="s">
+      <c r="H127" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J127" s="23" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4867,13 +4855,13 @@
       <c r="A128" t="s">
         <v>137</v>
       </c>
-      <c r="B128" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="23" t="s">
+      <c r="B128" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="21" t="s">
         <v>132</v>
       </c>
       <c r="E128" t="s">
@@ -4882,13 +4870,13 @@
       <c r="F128" t="s">
         <v>25</v>
       </c>
-      <c r="H128" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I128" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J128" s="25" t="s">
+      <c r="H128" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I128" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J128" s="23" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4896,13 +4884,13 @@
       <c r="A129" t="s">
         <v>139</v>
       </c>
-      <c r="B129" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C129" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="23" t="s">
+      <c r="B129" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="21" t="s">
         <v>132</v>
       </c>
       <c r="E129" t="s">
@@ -4911,13 +4899,13 @@
       <c r="F129" t="s">
         <v>25</v>
       </c>
-      <c r="H129" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I129" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J129" s="25" t="s">
+      <c r="H129" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J129" s="23" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4925,13 +4913,13 @@
       <c r="A130" t="s">
         <v>141</v>
       </c>
-      <c r="B130" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="23" t="s">
+      <c r="B130" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="21" t="s">
         <v>132</v>
       </c>
       <c r="E130" t="s">
@@ -4940,13 +4928,13 @@
       <c r="F130" t="s">
         <v>25</v>
       </c>
-      <c r="H130" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I130" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J130" s="25" t="s">
+      <c r="H130" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I130" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J130" s="23" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4954,13 +4942,13 @@
       <c r="A131" t="s">
         <v>143</v>
       </c>
-      <c r="B131" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="23" t="s">
+      <c r="B131" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="21" t="s">
         <v>132</v>
       </c>
       <c r="E131" t="s">
@@ -4969,13 +4957,13 @@
       <c r="F131" t="s">
         <v>25</v>
       </c>
-      <c r="H131" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I131" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J131" s="25" t="s">
+      <c r="H131" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I131" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J131" s="23" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4998,13 +4986,13 @@
       <c r="F132" t="s">
         <v>25</v>
       </c>
-      <c r="H132" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I132" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J132" s="20" t="s">
+      <c r="H132" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I132" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J132" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5027,13 +5015,13 @@
       <c r="F133" t="s">
         <v>25</v>
       </c>
-      <c r="H133" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I133" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J133" s="16" t="s">
+      <c r="H133" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I133" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J133" s="15" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5056,13 +5044,13 @@
       <c r="F134" t="s">
         <v>25</v>
       </c>
-      <c r="H134" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I134" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J134" s="16" t="s">
+      <c r="H134" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I134" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J134" s="15" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5085,13 +5073,13 @@
       <c r="F135" t="s">
         <v>25</v>
       </c>
-      <c r="H135" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I135" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J135" s="26" t="s">
+      <c r="H135" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I135" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J135" s="24" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5114,19 +5102,19 @@
       <c r="F136" t="s">
         <v>25</v>
       </c>
-      <c r="H136" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I136" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J136" s="26" t="s">
+      <c r="H136" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I136" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J136" s="24" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="B137" t="s">
         <v>11</v>
@@ -5143,13 +5131,13 @@
       <c r="F137" t="s">
         <v>25</v>
       </c>
-      <c r="H137" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I137" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J137" s="26" t="s">
+      <c r="H137" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I137" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J137" s="24" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5167,18 +5155,18 @@
         <v>115</v>
       </c>
       <c r="E138" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="F138" t="s">
         <v>25</v>
       </c>
-      <c r="H138" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I138" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J138" s="27" t="s">
+      <c r="H138" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I138" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J138" s="25" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5201,19 +5189,19 @@
       <c r="F139" t="s">
         <v>25</v>
       </c>
-      <c r="H139" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I139" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J139" s="16" t="s">
+      <c r="H139" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I139" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J139" s="15" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B140" t="s">
         <v>11</v>
@@ -5230,10 +5218,10 @@
       <c r="F140" t="s">
         <v>25</v>
       </c>
-      <c r="H140" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I140" s="14" t="s">
+      <c r="H140" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I140" s="13" t="s">
         <v>134</v>
       </c>
       <c r="J140" s="2" t="s">
@@ -5242,7 +5230,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="B141" t="s">
         <v>11</v>
@@ -5259,10 +5247,10 @@
       <c r="F141" t="s">
         <v>25</v>
       </c>
-      <c r="H141" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I141" s="14" t="s">
+      <c r="H141" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I141" s="13" t="s">
         <v>134</v>
       </c>
       <c r="J141" s="2" t="s">
@@ -5271,7 +5259,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B142" t="s">
         <v>11</v>
@@ -5288,10 +5276,10 @@
       <c r="F142" t="s">
         <v>25</v>
       </c>
-      <c r="H142" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I142" s="14" t="s">
+      <c r="H142" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I142" s="13" t="s">
         <v>134</v>
       </c>
       <c r="J142" s="2" t="s">
@@ -5300,7 +5288,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="B143" t="s">
         <v>11</v>
@@ -5317,10 +5305,10 @@
       <c r="F143" t="s">
         <v>25</v>
       </c>
-      <c r="H143" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I143" s="14" t="s">
+      <c r="H143" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I143" s="13" t="s">
         <v>134</v>
       </c>
       <c r="J143" s="2" t="s">
@@ -5346,17 +5334,17 @@
       <c r="F144" t="s">
         <v>25</v>
       </c>
-      <c r="H144" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I144" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J144" s="28" t="s">
+      <c r="H144" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I144" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J144" s="26" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>170</v>
       </c>
@@ -5370,22 +5358,22 @@
         <v>115</v>
       </c>
       <c r="E145" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="F145" t="s">
         <v>25</v>
       </c>
-      <c r="H145" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I145" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J145" s="20" t="s">
+      <c r="H145" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I145" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J145" s="18" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>176</v>
       </c>
@@ -5399,22 +5387,22 @@
         <v>115</v>
       </c>
       <c r="E146" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="F146" t="s">
         <v>25</v>
       </c>
-      <c r="H146" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I146" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J146" s="16" t="s">
+      <c r="H146" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I146" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J146" s="15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>171</v>
       </c>
@@ -5428,22 +5416,22 @@
         <v>115</v>
       </c>
       <c r="E147" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="F147" t="s">
         <v>25</v>
       </c>
-      <c r="H147" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I147" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J147" s="29" t="s">
+      <c r="H147" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I147" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J147" s="27" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>172</v>
       </c>
@@ -5462,17 +5450,17 @@
       <c r="F148" t="s">
         <v>25</v>
       </c>
-      <c r="H148" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I148" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J148" s="16" t="s">
+      <c r="H148" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I148" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J148" s="15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>174</v>
       </c>
@@ -5491,17 +5479,17 @@
       <c r="F149" t="s">
         <v>25</v>
       </c>
-      <c r="H149" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I149" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J149" s="16" t="s">
+      <c r="H149" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I149" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J149" s="15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>177</v>
       </c>
@@ -5520,17 +5508,17 @@
       <c r="F150" t="s">
         <v>25</v>
       </c>
-      <c r="H150" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I150" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J150" s="16" t="s">
+      <c r="H150" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I150" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J150" s="15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>179</v>
       </c>
@@ -5544,22 +5532,22 @@
         <v>115</v>
       </c>
       <c r="E151" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="F151" t="s">
         <v>25</v>
       </c>
-      <c r="H151" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I151" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J151" s="16" t="s">
+      <c r="H151" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I151" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J151" s="15" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>180</v>
       </c>
@@ -5578,17 +5566,17 @@
       <c r="F152" t="s">
         <v>25</v>
       </c>
-      <c r="H152" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I152" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J152" s="16" t="s">
+      <c r="H152" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I152" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J152" s="15" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>182</v>
       </c>
@@ -5602,22 +5590,22 @@
         <v>115</v>
       </c>
       <c r="E153" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="F153" t="s">
         <v>25</v>
       </c>
-      <c r="H153" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I153" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J153" s="16" t="s">
+      <c r="H153" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J153" s="15" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>183</v>
       </c>
@@ -5636,17 +5624,17 @@
       <c r="F154" t="s">
         <v>25</v>
       </c>
-      <c r="H154" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I154" s="14" t="s">
+      <c r="H154" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" s="13" t="s">
         <v>134</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>185</v>
       </c>
@@ -5665,17 +5653,17 @@
       <c r="F155" t="s">
         <v>25</v>
       </c>
-      <c r="H155" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I155" s="14" t="s">
+      <c r="H155" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" s="13" t="s">
         <v>134</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>187</v>
       </c>
@@ -5694,17 +5682,17 @@
       <c r="F156" t="s">
         <v>25</v>
       </c>
-      <c r="H156" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I156" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J156" s="20" t="s">
+      <c r="H156" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I156" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J156" s="18" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>189</v>
       </c>
@@ -5723,17 +5711,17 @@
       <c r="F157" t="s">
         <v>25</v>
       </c>
-      <c r="H157" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I157" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J157" s="16" t="s">
+      <c r="H157" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I157" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J157" s="15" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>191</v>
       </c>
@@ -5752,17 +5740,17 @@
       <c r="F158" t="s">
         <v>25</v>
       </c>
-      <c r="H158" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I158" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J158" s="16" t="s">
+      <c r="H158" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I158" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J158" s="15" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>193</v>
       </c>
@@ -5776,724 +5764,588 @@
         <v>115</v>
       </c>
       <c r="E159" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="F159" t="s">
         <v>25</v>
       </c>
-      <c r="H159" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I159" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J159" s="20" t="s">
+      <c r="H159" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I159" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J159" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="B160" s="29"/>
+      <c r="C160" s="29"/>
+      <c r="D160" s="29"/>
+      <c r="E160" s="30"/>
+      <c r="F160" s="29"/>
+      <c r="G160" s="29"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="31"/>
+      <c r="K160" s="29"/>
+      <c r="L160" s="29"/>
+    </row>
+    <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B161" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E161" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F161" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" s="29"/>
+      <c r="H161" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I161" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J161" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K161" s="29"/>
+      <c r="L161" s="29"/>
+    </row>
+    <row r="162" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B162" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E162" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F162" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" s="29"/>
+      <c r="H162" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I162" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J162" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="K162" s="29"/>
+      <c r="L162" s="29"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="B163" s="29"/>
+      <c r="C163" s="29"/>
+      <c r="D163" s="29"/>
+      <c r="E163" s="30"/>
+      <c r="F163" s="29"/>
+      <c r="G163" s="29"/>
+      <c r="H163" s="13"/>
+      <c r="I163" s="34"/>
+      <c r="J163" s="31"/>
+      <c r="K163" s="29"/>
+      <c r="L163" s="29"/>
+    </row>
+    <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B164" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E164" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F164" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G164" s="29"/>
+      <c r="H164" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I164" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J164" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K164" s="29"/>
+      <c r="L164" s="29"/>
+    </row>
+    <row r="165" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B165" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E165" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F165" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G165" s="29"/>
+      <c r="H165" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I165" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J165" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="K165" s="29"/>
+      <c r="L165" s="29"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>225</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" t="s">
+        <v>226</v>
+      </c>
+      <c r="F167" t="s">
+        <v>222</v>
+      </c>
+      <c r="H167" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I167" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="J167" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I168" s="14"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" t="s">
+        <v>229</v>
+      </c>
+      <c r="H169" t="s">
+        <v>230</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" t="s">
+        <v>18</v>
+      </c>
+      <c r="F170" t="s">
+        <v>229</v>
+      </c>
+      <c r="H170" t="s">
+        <v>230</v>
+      </c>
+      <c r="I170" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>231</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" t="s">
+        <v>132</v>
+      </c>
+      <c r="E171" t="s">
+        <v>232</v>
+      </c>
+      <c r="F171" t="s">
+        <v>229</v>
+      </c>
+      <c r="H171" t="s">
+        <v>230</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>233</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" t="s">
+        <v>132</v>
+      </c>
+      <c r="E172" t="s">
+        <v>234</v>
+      </c>
+      <c r="F172" t="s">
+        <v>229</v>
+      </c>
+      <c r="H172" t="s">
+        <v>230</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>235</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" t="s">
+        <v>132</v>
+      </c>
+      <c r="E173" t="s">
+        <v>236</v>
+      </c>
+      <c r="F173" t="s">
+        <v>229</v>
+      </c>
+      <c r="H173" t="s">
+        <v>230</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>237</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" t="s">
+        <v>132</v>
+      </c>
+      <c r="E174" t="s">
+        <v>159</v>
+      </c>
+      <c r="F174" t="s">
+        <v>229</v>
+      </c>
+      <c r="H174" t="s">
+        <v>230</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>238</v>
+      </c>
+      <c r="B175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" t="s">
+        <v>132</v>
+      </c>
+      <c r="E175" t="s">
+        <v>239</v>
+      </c>
+      <c r="F175" t="s">
+        <v>229</v>
+      </c>
+      <c r="H175" t="s">
+        <v>230</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>240</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" t="s">
+        <v>241</v>
+      </c>
+      <c r="F176" t="s">
+        <v>229</v>
+      </c>
+      <c r="H176" t="s">
+        <v>230</v>
+      </c>
+      <c r="I176" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>242</v>
+      </c>
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" t="s">
+        <v>13</v>
+      </c>
+      <c r="E177" t="s">
+        <v>243</v>
+      </c>
+      <c r="F177" t="s">
+        <v>229</v>
+      </c>
+      <c r="H177" t="s">
+        <v>230</v>
+      </c>
+      <c r="I177" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>244</v>
+      </c>
+      <c r="B178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" t="s">
+        <v>245</v>
+      </c>
+      <c r="F178" t="s">
+        <v>229</v>
+      </c>
+      <c r="H178" t="s">
+        <v>230</v>
+      </c>
+      <c r="I178" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>246</v>
+      </c>
+      <c r="B179" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="C179" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" t="s">
+        <v>247</v>
+      </c>
+      <c r="E179" t="s">
+        <v>248</v>
+      </c>
+      <c r="F179" t="s">
+        <v>229</v>
+      </c>
+      <c r="H179" t="s">
+        <v>230</v>
+      </c>
+      <c r="I179" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A180" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B180" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C180" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B161" t="s">
+      <c r="D180" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="C161" t="s">
+      <c r="E180" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F180" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="D161" t="s">
+      <c r="H180" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I180" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="E161" t="s">
-        <v>224</v>
-      </c>
-      <c r="F161" t="s">
-        <v>225</v>
-      </c>
-      <c r="H161" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I161" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="J161" s="15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>227</v>
-      </c>
-      <c r="B162" t="s">
-        <v>221</v>
-      </c>
-      <c r="C162" t="s">
-        <v>222</v>
-      </c>
-      <c r="D162" t="s">
-        <v>223</v>
-      </c>
-      <c r="E162" t="s">
-        <v>228</v>
-      </c>
-      <c r="F162" t="s">
-        <v>225</v>
-      </c>
-      <c r="G162" s="10"/>
-      <c r="H162" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I162" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="J162" s="15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>229</v>
-      </c>
-      <c r="B163" t="s">
-        <v>221</v>
-      </c>
-      <c r="C163" t="s">
-        <v>222</v>
-      </c>
-      <c r="D163" t="s">
-        <v>223</v>
-      </c>
-      <c r="E163" t="s">
-        <v>230</v>
-      </c>
-      <c r="F163" t="s">
-        <v>225</v>
-      </c>
-      <c r="G163" s="10"/>
-      <c r="H163" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I163" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="J163" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>231</v>
-      </c>
-      <c r="B164" t="s">
-        <v>221</v>
-      </c>
-      <c r="C164" t="s">
-        <v>222</v>
-      </c>
-      <c r="D164" t="s">
-        <v>223</v>
-      </c>
-      <c r="E164" t="s">
-        <v>232</v>
-      </c>
-      <c r="F164" t="s">
-        <v>225</v>
-      </c>
-      <c r="G164" s="10"/>
-      <c r="H164" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I164" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="J164" s="15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>233</v>
-      </c>
-      <c r="B165" t="s">
-        <v>221</v>
-      </c>
-      <c r="C165" t="s">
-        <v>222</v>
-      </c>
-      <c r="D165" t="s">
-        <v>223</v>
-      </c>
-      <c r="E165" t="s">
-        <v>234</v>
-      </c>
-      <c r="F165" t="s">
-        <v>225</v>
-      </c>
-      <c r="G165" s="10"/>
-      <c r="H165" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I165" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="J165" s="15" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>235</v>
-      </c>
-      <c r="B166" t="s">
-        <v>221</v>
-      </c>
-      <c r="C166" t="s">
-        <v>222</v>
-      </c>
-      <c r="D166" t="s">
-        <v>223</v>
-      </c>
-      <c r="E166" t="s">
-        <v>236</v>
-      </c>
-      <c r="F166" t="s">
-        <v>225</v>
-      </c>
-      <c r="G166" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="H166" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I166" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="J166" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>239</v>
-      </c>
-      <c r="B167" t="s">
-        <v>221</v>
-      </c>
-      <c r="C167" t="s">
-        <v>222</v>
-      </c>
-      <c r="D167" t="s">
-        <v>223</v>
-      </c>
-      <c r="E167" t="s">
-        <v>240</v>
-      </c>
-      <c r="F167" t="s">
-        <v>225</v>
-      </c>
-      <c r="G167" s="30"/>
-      <c r="H167" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I167" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>241</v>
-      </c>
-      <c r="B168" t="s">
-        <v>221</v>
-      </c>
-      <c r="C168" t="s">
-        <v>222</v>
-      </c>
-      <c r="D168" t="s">
-        <v>223</v>
-      </c>
-      <c r="E168" t="s">
-        <v>241</v>
-      </c>
-      <c r="F168" t="s">
-        <v>225</v>
-      </c>
-      <c r="G168" s="30"/>
-      <c r="H168" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I168" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>242</v>
-      </c>
-      <c r="B169" t="s">
-        <v>221</v>
-      </c>
-      <c r="C169" t="s">
-        <v>222</v>
-      </c>
-      <c r="D169" t="s">
-        <v>223</v>
-      </c>
-      <c r="E169" t="s">
-        <v>242</v>
-      </c>
-      <c r="F169" t="s">
-        <v>225</v>
-      </c>
-      <c r="G169" s="30"/>
-      <c r="H169" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I169" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>243</v>
-      </c>
-      <c r="B170" t="s">
-        <v>221</v>
-      </c>
-      <c r="C170" t="s">
-        <v>222</v>
-      </c>
-      <c r="D170" t="s">
-        <v>223</v>
-      </c>
-      <c r="E170" t="s">
-        <v>243</v>
-      </c>
-      <c r="F170" t="s">
-        <v>225</v>
-      </c>
-      <c r="G170" s="30"/>
-      <c r="H170" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I170" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>244</v>
-      </c>
-      <c r="B171" t="s">
-        <v>221</v>
-      </c>
-      <c r="C171" t="s">
-        <v>222</v>
-      </c>
-      <c r="D171" t="s">
-        <v>223</v>
-      </c>
-      <c r="E171" t="s">
-        <v>244</v>
-      </c>
-      <c r="F171" t="s">
-        <v>225</v>
-      </c>
-      <c r="G171" s="30"/>
-      <c r="H171" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I171" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>246</v>
-      </c>
-      <c r="B173" t="s">
-        <v>11</v>
-      </c>
-      <c r="C173" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" t="s">
-        <v>13</v>
-      </c>
-      <c r="E173" t="s">
-        <v>247</v>
-      </c>
-      <c r="F173" t="s">
-        <v>225</v>
-      </c>
-      <c r="H173" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I173" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="J173" s="15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="I174" s="15"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>10</v>
-      </c>
-      <c r="B175" t="s">
-        <v>11</v>
-      </c>
-      <c r="C175" t="s">
-        <v>12</v>
-      </c>
-      <c r="D175" t="s">
-        <v>13</v>
-      </c>
-      <c r="E175" t="s">
-        <v>14</v>
-      </c>
-      <c r="F175" t="s">
-        <v>250</v>
-      </c>
-      <c r="H175" t="s">
-        <v>251</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>17</v>
-      </c>
-      <c r="B176" t="s">
-        <v>11</v>
-      </c>
-      <c r="C176" t="s">
-        <v>12</v>
-      </c>
-      <c r="D176" t="s">
-        <v>13</v>
-      </c>
-      <c r="E176" t="s">
-        <v>18</v>
-      </c>
-      <c r="F176" t="s">
-        <v>250</v>
-      </c>
-      <c r="H176" t="s">
-        <v>251</v>
-      </c>
-      <c r="I176" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>252</v>
-      </c>
-      <c r="B177" t="s">
-        <v>11</v>
-      </c>
-      <c r="C177" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177" t="s">
-        <v>132</v>
-      </c>
-      <c r="E177" t="s">
-        <v>253</v>
-      </c>
-      <c r="F177" t="s">
-        <v>250</v>
-      </c>
-      <c r="H177" t="s">
-        <v>251</v>
-      </c>
-      <c r="I177" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>254</v>
-      </c>
-      <c r="B178" t="s">
-        <v>11</v>
-      </c>
-      <c r="C178" t="s">
-        <v>12</v>
-      </c>
-      <c r="D178" t="s">
-        <v>132</v>
-      </c>
-      <c r="E178" t="s">
-        <v>255</v>
-      </c>
-      <c r="F178" t="s">
-        <v>250</v>
-      </c>
-      <c r="H178" t="s">
-        <v>251</v>
-      </c>
-      <c r="I178" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>256</v>
-      </c>
-      <c r="B179" t="s">
-        <v>11</v>
-      </c>
-      <c r="C179" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179" t="s">
-        <v>132</v>
-      </c>
-      <c r="E179" t="s">
-        <v>257</v>
-      </c>
-      <c r="F179" t="s">
-        <v>250</v>
-      </c>
-      <c r="H179" t="s">
-        <v>251</v>
-      </c>
-      <c r="I179" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>258</v>
-      </c>
-      <c r="B180" t="s">
-        <v>11</v>
-      </c>
-      <c r="C180" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" t="s">
-        <v>132</v>
-      </c>
-      <c r="E180" t="s">
-        <v>159</v>
-      </c>
-      <c r="F180" t="s">
-        <v>250</v>
-      </c>
-      <c r="H180" t="s">
-        <v>251</v>
-      </c>
-      <c r="I180" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>259</v>
-      </c>
-      <c r="B181" t="s">
-        <v>11</v>
-      </c>
-      <c r="C181" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" t="s">
-        <v>132</v>
-      </c>
-      <c r="E181" t="s">
-        <v>260</v>
-      </c>
-      <c r="F181" t="s">
-        <v>250</v>
-      </c>
-      <c r="H181" t="s">
-        <v>251</v>
-      </c>
-      <c r="I181" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>261</v>
-      </c>
-      <c r="B182" t="s">
-        <v>11</v>
-      </c>
-      <c r="C182" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" t="s">
-        <v>13</v>
-      </c>
-      <c r="E182" t="s">
-        <v>262</v>
-      </c>
-      <c r="F182" t="s">
-        <v>250</v>
-      </c>
-      <c r="H182" t="s">
-        <v>251</v>
-      </c>
-      <c r="I182" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>263</v>
-      </c>
-      <c r="B183" t="s">
-        <v>11</v>
-      </c>
-      <c r="C183" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" t="s">
-        <v>13</v>
-      </c>
-      <c r="E183" t="s">
-        <v>264</v>
-      </c>
-      <c r="F183" t="s">
-        <v>250</v>
-      </c>
-      <c r="H183" t="s">
-        <v>251</v>
-      </c>
-      <c r="I183" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>265</v>
-      </c>
-      <c r="B184" t="s">
-        <v>11</v>
-      </c>
-      <c r="C184" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" t="s">
-        <v>13</v>
-      </c>
-      <c r="E184" t="s">
-        <v>266</v>
-      </c>
-      <c r="F184" t="s">
-        <v>250</v>
-      </c>
-      <c r="H184" t="s">
-        <v>251</v>
-      </c>
-      <c r="I184" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="J180" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="B185" t="s">
-        <v>221</v>
-      </c>
-      <c r="C185" t="s">
-        <v>222</v>
-      </c>
-      <c r="D185" t="s">
-        <v>268</v>
-      </c>
-      <c r="E185" t="s">
-        <v>269</v>
-      </c>
-      <c r="F185" t="s">
-        <v>250</v>
-      </c>
-      <c r="H185" t="s">
-        <v>251</v>
-      </c>
-      <c r="I185" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G187" s="19"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G188" s="18"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G189" s="19"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G190" s="18"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G191" s="19"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G192" s="18"/>
+      <c r="K180" s="29"/>
+      <c r="L180" s="29"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G181" s="16"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G182" s="17"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G183" s="16"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G184" s="17"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G185" s="16"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G186" s="17"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G187" s="16"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G188" s="17"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G189" s="16"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G190" s="17"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G191" s="16"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G192" s="17"/>
     </row>
     <row r="193" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G193" s="19"/>
+      <c r="G193" s="16"/>
     </row>
     <row r="194" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G194" s="18"/>
+      <c r="G194" s="17"/>
     </row>
     <row r="195" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G195" s="19"/>
+      <c r="G195" s="16"/>
     </row>
     <row r="196" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G196" s="18"/>
-    </row>
-    <row r="197" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G197" s="19"/>
-    </row>
-    <row r="198" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G198" s="18"/>
-    </row>
-    <row r="199" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G199" s="19"/>
-    </row>
-    <row r="200" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G200" s="18"/>
-    </row>
-    <row r="201" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G201" s="19"/>
-    </row>
-    <row r="202" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G202" s="18"/>
-    </row>
-    <row r="203" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G203" s="19"/>
+      <c r="G196" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J185" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="1">
-    <mergeCell ref="G166:G171"/>
-  </mergeCells>
+  <autoFilter ref="A1:J180" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6511,15 +6363,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010020AB8D80EE38534F9519E3E4DE1A635C" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2fb15c294a817fdcd94150ccc0adbbf4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca" xmlns:ns3="aeca75af-2390-46f4-9168-0f31f2cf789f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b55b215397fc5f6eb14b023f8b46d6e1" ns2:_="" ns3:_="">
     <xsd:import namespace="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca"/>
@@ -6762,6 +6605,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC97621E-DFBE-4206-BCBD-16BD065E3224}">
   <ds:schemaRefs>
@@ -6774,14 +6626,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{769B1AFD-366A-4608-8AF2-0173EB0137EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6BFA16C-B0EC-4649-8235-F39CCC119840}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6798,4 +6642,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{769B1AFD-366A-4608-8AF2-0173EB0137EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Config Files/AOC-4_nodes_seperated_config.xlsx
+++ b/Config Files/AOC-4_nodes_seperated_config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCA Portal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mns-admin\Documents\Python\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FC0484-F32A-4DF0-A9A4-32D78FB39125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E499C5-6C53-41F1-A3AC-B7C11B23657F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$182</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="279">
   <si>
     <t>Field_Name</t>
   </si>
@@ -843,13 +843,46 @@
   </si>
   <si>
     <t>auditor_name, auditor_firm_name, pan, membership_number, firm_registration_number, address</t>
+  </si>
+  <si>
+    <t>disclosures_auditor_report</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>disclosures_director_report</t>
+  </si>
+  <si>
+    <t>OTHER_LNG_TRM_PR</t>
+  </si>
+  <si>
+    <t>OTHER_LNG_TRM_CR</t>
+  </si>
+  <si>
+    <t>DEFERRED_TL_PR</t>
+  </si>
+  <si>
+    <t>DEFERRED_TL_CR</t>
+  </si>
+  <si>
+    <t>OTHER_CURR_LIA_C</t>
+  </si>
+  <si>
+    <t>OTHER_CURR_LIA_P</t>
+  </si>
+  <si>
+    <t>current_tax</t>
+  </si>
+  <si>
+    <t>deferred_tax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -927,12 +960,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1062,7 +1089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1135,20 +1162,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1432,11 +1455,11 @@
   <dimension ref="A1:L196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F183" sqref="F183"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -1450,7 +1473,7 @@
     <col min="10" max="10" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1479,14 +1502,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1514,7 +1537,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1540,13 +1563,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" t="s">
         <v>222</v>
       </c>
@@ -1560,13 +1586,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" t="s">
         <v>222</v>
       </c>
@@ -1580,12 +1609,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1611,7 +1640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1637,13 +1666,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" t="s">
         <v>222</v>
       </c>
@@ -1657,13 +1689,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" t="s">
         <v>222</v>
       </c>
@@ -1677,12 +1712,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1711,7 +1746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1740,7 +1775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="25.5">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1769,7 +1804,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="25.5">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1798,7 +1833,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1827,7 +1862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1856,7 +1891,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1885,7 +1920,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1914,7 +1949,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1943,7 +1978,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1972,7 +2007,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2001,7 +2036,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -2030,7 +2065,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -2059,7 +2094,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -2088,7 +2123,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -2117,12 +2152,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2151,7 +2186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2180,7 +2215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="25.5">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2209,7 +2244,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="25.5">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2238,7 +2273,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2267,7 +2302,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2296,7 +2331,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -2325,7 +2360,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2354,7 +2389,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2383,7 +2418,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -2412,7 +2447,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -2441,7 +2476,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -2470,7 +2505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2499,7 +2534,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -2528,7 +2563,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -2557,12 +2592,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -2591,7 +2626,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -2620,7 +2655,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="25.5">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -2649,7 +2684,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="25.5">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -2678,7 +2713,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -2707,7 +2742,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -2721,7 +2756,7 @@
         <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>86</v>
+        <v>274</v>
       </c>
       <c r="F50" t="s">
         <v>15</v>
@@ -2736,7 +2771,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -2750,7 +2785,7 @@
         <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>86</v>
+        <v>272</v>
       </c>
       <c r="F51" t="s">
         <v>15</v>
@@ -2765,7 +2800,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -2794,7 +2829,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>91</v>
       </c>
@@ -2823,7 +2858,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -2852,7 +2887,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>95</v>
       </c>
@@ -2866,7 +2901,7 @@
         <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="F55" t="s">
         <v>15</v>
@@ -2881,7 +2916,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -2910,7 +2945,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>98</v>
       </c>
@@ -2939,12 +2974,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -2973,7 +3008,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -3002,7 +3037,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="25.5">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -3031,7 +3066,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="25.5">
       <c r="A62" t="s">
         <v>83</v>
       </c>
@@ -3060,7 +3095,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -3089,7 +3124,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -3103,7 +3138,7 @@
         <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>106</v>
+        <v>273</v>
       </c>
       <c r="F64" t="s">
         <v>25</v>
@@ -3118,7 +3153,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>88</v>
       </c>
@@ -3132,7 +3167,7 @@
         <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>106</v>
+        <v>271</v>
       </c>
       <c r="F65" t="s">
         <v>25</v>
@@ -3147,7 +3182,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>89</v>
       </c>
@@ -3176,7 +3211,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>91</v>
       </c>
@@ -3205,7 +3240,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -3234,7 +3269,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>95</v>
       </c>
@@ -3248,7 +3283,7 @@
         <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>109</v>
+        <v>276</v>
       </c>
       <c r="F69" t="s">
         <v>25</v>
@@ -3263,7 +3298,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -3292,7 +3327,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>98</v>
       </c>
@@ -3321,12 +3356,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -3355,7 +3390,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>114</v>
       </c>
@@ -3384,7 +3419,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>117</v>
       </c>
@@ -3413,7 +3448,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>119</v>
       </c>
@@ -3442,7 +3477,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>121</v>
       </c>
@@ -3471,7 +3506,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>123</v>
       </c>
@@ -3500,7 +3535,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>125</v>
       </c>
@@ -3529,7 +3564,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>127</v>
       </c>
@@ -3558,13 +3593,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" s="3" t="s">
         <v>129</v>
       </c>
       <c r="H81" s="13"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -3593,7 +3628,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>114</v>
       </c>
@@ -3622,7 +3657,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>117</v>
       </c>
@@ -3651,7 +3686,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>119</v>
       </c>
@@ -3680,7 +3715,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>121</v>
       </c>
@@ -3709,7 +3744,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>123</v>
       </c>
@@ -3738,7 +3773,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>125</v>
       </c>
@@ -3767,7 +3802,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>127</v>
       </c>
@@ -3796,12 +3831,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="30">
       <c r="A91" t="s">
         <v>131</v>
       </c>
@@ -3830,7 +3865,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>135</v>
       </c>
@@ -3859,7 +3894,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="30">
       <c r="A93" t="s">
         <v>137</v>
       </c>
@@ -3888,7 +3923,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="30">
       <c r="A94" t="s">
         <v>139</v>
       </c>
@@ -3917,7 +3952,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>141</v>
       </c>
@@ -3946,7 +3981,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="30">
       <c r="A96" t="s">
         <v>143</v>
       </c>
@@ -3975,7 +4010,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="50.25" customHeight="1">
       <c r="A97" t="s">
         <v>145</v>
       </c>
@@ -4004,7 +4039,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -4033,7 +4068,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>149</v>
       </c>
@@ -4062,7 +4097,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>151</v>
       </c>
@@ -4091,7 +4126,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>153</v>
       </c>
@@ -4120,7 +4155,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>260</v>
       </c>
@@ -4149,7 +4184,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="30">
       <c r="A103" t="s">
         <v>157</v>
       </c>
@@ -4178,7 +4213,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>158</v>
       </c>
@@ -4207,7 +4242,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>253</v>
       </c>
@@ -4236,7 +4271,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>255</v>
       </c>
@@ -4265,7 +4300,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>254</v>
       </c>
@@ -4294,7 +4329,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>256</v>
       </c>
@@ -4323,7 +4358,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>168</v>
       </c>
@@ -4352,7 +4387,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
         <v>170</v>
       </c>
@@ -4381,7 +4416,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>176</v>
       </c>
@@ -4410,7 +4445,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>171</v>
       </c>
@@ -4439,7 +4474,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>172</v>
       </c>
@@ -4468,7 +4503,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
         <v>174</v>
       </c>
@@ -4497,7 +4532,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>177</v>
       </c>
@@ -4526,7 +4561,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="25.5">
       <c r="A116" t="s">
         <v>179</v>
       </c>
@@ -4555,7 +4590,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
         <v>180</v>
       </c>
@@ -4584,7 +4619,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
         <v>182</v>
       </c>
@@ -4613,9 +4648,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="B119" t="s">
         <v>11</v>
@@ -4639,12 +4674,12 @@
         <v>134</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>185</v>
+        <v>278</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
@@ -4668,10 +4703,10 @@
         <v>134</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
         <v>187</v>
       </c>
@@ -4700,7 +4735,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="25.5">
       <c r="A122" t="s">
         <v>189</v>
       </c>
@@ -4729,7 +4764,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="25.5">
       <c r="A123" t="s">
         <v>191</v>
       </c>
@@ -4758,7 +4793,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
         <v>193</v>
       </c>
@@ -4787,13 +4822,13 @@
         <v>193</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10">
       <c r="A125" s="3" t="s">
         <v>194</v>
       </c>
       <c r="J125" s="15"/>
     </row>
-    <row r="126" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="30">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -4822,7 +4857,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
         <v>135</v>
       </c>
@@ -4851,7 +4886,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="30">
       <c r="A128" t="s">
         <v>137</v>
       </c>
@@ -4880,7 +4915,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="30">
       <c r="A129" t="s">
         <v>139</v>
       </c>
@@ -4909,7 +4944,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
         <v>141</v>
       </c>
@@ -4938,7 +4973,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="30">
       <c r="A131" t="s">
         <v>143</v>
       </c>
@@ -4967,7 +5002,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
         <v>145</v>
       </c>
@@ -4996,7 +5031,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -5025,7 +5060,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
         <v>149</v>
       </c>
@@ -5054,7 +5089,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
         <v>151</v>
       </c>
@@ -5083,7 +5118,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
         <v>153</v>
       </c>
@@ -5112,7 +5147,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
         <v>260</v>
       </c>
@@ -5141,7 +5176,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="30">
       <c r="A138" t="s">
         <v>157</v>
       </c>
@@ -5170,7 +5205,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
         <v>158</v>
       </c>
@@ -5199,7 +5234,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
         <v>253</v>
       </c>
@@ -5228,7 +5263,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
         <v>255</v>
       </c>
@@ -5257,7 +5292,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
         <v>254</v>
       </c>
@@ -5286,7 +5321,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
         <v>256</v>
       </c>
@@ -5315,7 +5350,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
         <v>168</v>
       </c>
@@ -5344,7 +5379,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12">
       <c r="A145" t="s">
         <v>170</v>
       </c>
@@ -5373,7 +5408,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12">
       <c r="A146" t="s">
         <v>176</v>
       </c>
@@ -5402,7 +5437,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12">
       <c r="A147" t="s">
         <v>171</v>
       </c>
@@ -5431,7 +5466,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12">
       <c r="A148" t="s">
         <v>172</v>
       </c>
@@ -5460,7 +5495,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12">
       <c r="A149" t="s">
         <v>174</v>
       </c>
@@ -5489,7 +5524,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12">
       <c r="A150" t="s">
         <v>177</v>
       </c>
@@ -5518,7 +5553,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="25.5">
       <c r="A151" t="s">
         <v>179</v>
       </c>
@@ -5547,7 +5582,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12">
       <c r="A152" t="s">
         <v>180</v>
       </c>
@@ -5576,7 +5611,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12">
       <c r="A153" t="s">
         <v>182</v>
       </c>
@@ -5605,7 +5640,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12">
       <c r="A154" t="s">
         <v>183</v>
       </c>
@@ -5634,7 +5669,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12">
       <c r="A155" t="s">
         <v>185</v>
       </c>
@@ -5663,7 +5698,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12">
       <c r="A156" t="s">
         <v>187</v>
       </c>
@@ -5692,7 +5727,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="25.5">
       <c r="A157" t="s">
         <v>189</v>
       </c>
@@ -5721,7 +5756,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="25.5">
       <c r="A158" t="s">
         <v>191</v>
       </c>
@@ -5750,7 +5785,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12">
       <c r="A159" t="s">
         <v>193</v>
       </c>
@@ -5779,24 +5814,23 @@
         <v>193</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12">
       <c r="A160" s="28" t="s">
         <v>261</v>
       </c>
       <c r="B160" s="29"/>
       <c r="C160" s="29"/>
       <c r="D160" s="29"/>
-      <c r="E160" s="30"/>
       <c r="F160" s="29"/>
       <c r="G160" s="29"/>
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
-      <c r="J160" s="31"/>
+      <c r="J160" s="30"/>
       <c r="K160" s="29"/>
       <c r="L160" s="29"/>
     </row>
-    <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="32" t="s">
+    <row r="161" spans="1:12" ht="30">
+      <c r="A161" s="31" t="s">
         <v>262</v>
       </c>
       <c r="B161" s="29" t="s">
@@ -5808,7 +5842,7 @@
       <c r="D161" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E161" s="33" t="s">
+      <c r="E161" t="s">
         <v>145</v>
       </c>
       <c r="F161" s="29" t="s">
@@ -5818,17 +5852,17 @@
       <c r="H161" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I161" s="34" t="s">
+      <c r="I161" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="J161" s="32" t="s">
+      <c r="J161" s="31" t="s">
         <v>262</v>
       </c>
       <c r="K161" s="29"/>
       <c r="L161" s="29"/>
     </row>
-    <row r="162" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="32" t="s">
+    <row r="162" spans="1:12" ht="30">
+      <c r="A162" s="31" t="s">
         <v>264</v>
       </c>
       <c r="B162" s="29" t="s">
@@ -5840,7 +5874,7 @@
       <c r="D162" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E162" s="33" t="s">
+      <c r="E162" t="s">
         <v>145</v>
       </c>
       <c r="F162" s="29" t="s">
@@ -5850,33 +5884,32 @@
       <c r="H162" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I162" s="34" t="s">
+      <c r="I162" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="J162" s="32" t="s">
+      <c r="J162" s="31" t="s">
         <v>264</v>
       </c>
       <c r="K162" s="29"/>
       <c r="L162" s="29"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12">
       <c r="A163" s="28" t="s">
         <v>265</v>
       </c>
       <c r="B163" s="29"/>
       <c r="C163" s="29"/>
       <c r="D163" s="29"/>
-      <c r="E163" s="30"/>
       <c r="F163" s="29"/>
       <c r="G163" s="29"/>
       <c r="H163" s="13"/>
-      <c r="I163" s="34"/>
-      <c r="J163" s="31"/>
+      <c r="I163" s="32"/>
+      <c r="J163" s="30"/>
       <c r="K163" s="29"/>
       <c r="L163" s="29"/>
     </row>
-    <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="32" t="s">
+    <row r="164" spans="1:12" ht="30">
+      <c r="A164" s="31" t="s">
         <v>262</v>
       </c>
       <c r="B164" s="29" t="s">
@@ -5888,7 +5921,7 @@
       <c r="D164" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E164" s="33" t="s">
+      <c r="E164" t="s">
         <v>145</v>
       </c>
       <c r="F164" s="29" t="s">
@@ -5898,17 +5931,17 @@
       <c r="H164" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I164" s="34" t="s">
+      <c r="I164" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="J164" s="32" t="s">
+      <c r="J164" s="31" t="s">
         <v>262</v>
       </c>
       <c r="K164" s="29"/>
       <c r="L164" s="29"/>
     </row>
-    <row r="165" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="32" t="s">
+    <row r="165" spans="1:12" ht="30">
+      <c r="A165" s="31" t="s">
         <v>264</v>
       </c>
       <c r="B165" s="29" t="s">
@@ -5920,7 +5953,7 @@
       <c r="D165" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E165" s="33" t="s">
+      <c r="E165" t="s">
         <v>145</v>
       </c>
       <c r="F165" s="29" t="s">
@@ -5930,21 +5963,21 @@
       <c r="H165" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I165" s="34" t="s">
+      <c r="I165" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="J165" s="32" t="s">
+      <c r="J165" s="31" t="s">
         <v>264</v>
       </c>
       <c r="K165" s="29"/>
       <c r="L165" s="29"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12">
       <c r="A166" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="25.5">
       <c r="A167" t="s">
         <v>225</v>
       </c>
@@ -5973,13 +6006,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12">
       <c r="A168" s="4" t="s">
         <v>228</v>
       </c>
       <c r="I168" s="14"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -6005,7 +6038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -6031,7 +6064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12">
       <c r="A171" t="s">
         <v>231</v>
       </c>
@@ -6057,7 +6090,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12">
       <c r="A172" t="s">
         <v>233</v>
       </c>
@@ -6083,7 +6116,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="30">
       <c r="A173" t="s">
         <v>235</v>
       </c>
@@ -6109,7 +6142,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="30">
       <c r="A174" t="s">
         <v>237</v>
       </c>
@@ -6135,7 +6168,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12">
       <c r="A175" t="s">
         <v>238</v>
       </c>
@@ -6161,7 +6194,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="30">
       <c r="A176" t="s">
         <v>240</v>
       </c>
@@ -6187,7 +6220,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="30">
       <c r="A177" t="s">
         <v>242</v>
       </c>
@@ -6213,7 +6246,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="30">
       <c r="A178" t="s">
         <v>244</v>
       </c>
@@ -6239,7 +6272,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="45">
       <c r="A179" t="s">
         <v>246</v>
       </c>
@@ -6265,7 +6298,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="75">
       <c r="A180" s="29" t="s">
         <v>223</v>
       </c>
@@ -6278,88 +6311,122 @@
       <c r="D180" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="E180" s="29" t="s">
+      <c r="E180" t="s">
         <v>266</v>
       </c>
       <c r="F180" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="H180" s="35" t="s">
+      <c r="H180" s="33" t="s">
         <v>16</v>
       </c>
       <c r="I180" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="J180" s="31" t="s">
+      <c r="J180" s="30" t="s">
         <v>267</v>
       </c>
       <c r="K180" s="29"/>
       <c r="L180" s="29"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12">
+      <c r="A181" t="s">
+        <v>268</v>
+      </c>
+      <c r="C181" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" t="s">
+        <v>269</v>
+      </c>
+      <c r="F181" s="29" t="s">
+        <v>222</v>
+      </c>
       <c r="G181" s="16"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G182" s="17"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H181" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I181" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182" t="s">
+        <v>270</v>
+      </c>
+      <c r="C182" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" t="s">
+        <v>269</v>
+      </c>
+      <c r="F182" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G182" s="16"/>
+      <c r="H182" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I182" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
       <c r="G183" s="16"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12">
       <c r="G184" s="17"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12">
       <c r="G185" s="16"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12">
       <c r="G186" s="17"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12">
       <c r="G187" s="16"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12">
       <c r="G188" s="17"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12">
       <c r="G189" s="16"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12">
       <c r="G190" s="17"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12">
       <c r="G191" s="16"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12">
       <c r="G192" s="17"/>
     </row>
-    <row r="193" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="7:7">
       <c r="G193" s="16"/>
     </row>
-    <row r="194" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="7:7">
       <c r="G194" s="17"/>
     </row>
-    <row r="195" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="7:7">
       <c r="G195" s="16"/>
     </row>
-    <row r="196" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="7:7">
       <c r="G196" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J180" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="aeca75af-2390-46f4-9168-0f31f2cf789f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6606,21 +6673,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="aeca75af-2390-46f4-9168-0f31f2cf789f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC97621E-DFBE-4206-BCBD-16BD065E3224}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{769B1AFD-366A-4608-8AF2-0173EB0137EC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aeca75af-2390-46f4-9168-0f31f2cf789f"/>
-    <ds:schemaRef ds:uri="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6645,9 +6711,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{769B1AFD-366A-4608-8AF2-0173EB0137EC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC97621E-DFBE-4206-BCBD-16BD065E3224}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aeca75af-2390-46f4-9168-0f31f2cf789f"/>
+    <ds:schemaRef ds:uri="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Config Files/AOC-4_nodes_seperated_config.xlsx
+++ b/Config Files/AOC-4_nodes_seperated_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mns-admin\Documents\Python\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E499C5-6C53-41F1-A3AC-B7C11B23657F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD2C938-1534-4485-B9F4-C12DF9FD6376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1455,8 +1455,8 @@
   <dimension ref="A1:L196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J121" sqref="J121"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J180" sqref="J180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Config Files/AOC-4_nodes_seperated_config.xlsx
+++ b/Config Files/AOC-4_nodes_seperated_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mns-admin\Documents\Python\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD2C938-1534-4485-B9F4-C12DF9FD6376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F4BF48-2D1D-43C8-B2E5-BA8AE2AF30A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="278">
   <si>
     <t>Field_Name</t>
   </si>
@@ -209,9 +209,6 @@
     <t>OTHER_CURR_CA_CR</t>
   </si>
   <si>
-    <t>total_assets</t>
-  </si>
-  <si>
     <t>TOTAL_CURR_REP1</t>
   </si>
   <si>
@@ -335,9 +332,6 @@
     <t>SHORT_TERM_PRO_C</t>
   </si>
   <si>
-    <t>total_liabilities</t>
-  </si>
-  <si>
     <t>TOTAL_CURR_REP</t>
   </si>
   <si>
@@ -425,9 +419,6 @@
     <t>total_other_non_current_assets</t>
   </si>
   <si>
-    <t>tangible_assets+intangible_assets+tangible_assets_capital_work_in_progress+intangible_assets_under_development+noncurrent_investments+deferred_tax_assets_net+long_term_loans_and_advances+other_noncurrent_assets</t>
-  </si>
-  <si>
     <t>subTotals-PREVIOUS YEAR</t>
   </si>
   <si>
@@ -791,12 +782,6 @@
     <t>Other_expenses+Managerial_remuneration+Payment_to_Auditors+Insurance_expenses+Power_and_fuel</t>
   </si>
   <si>
-    <t>profit_before_interest_and_tax-other_income</t>
-  </si>
-  <si>
-    <t>net_revenue+other_income-total_cost_of_materials_consumed+total_purchases_of_stock_in_trade+total_employee_benefit_expense+total_other_expenses</t>
-  </si>
-  <si>
     <t>profit_before_tax_and_exceptional_items_before_tax-exceptional_items_before_tax</t>
   </si>
   <si>
@@ -876,6 +861,18 @@
   </si>
   <si>
     <t>deferred_tax</t>
+  </si>
+  <si>
+    <t>noncurrent_investments+deferred_tax_assets_net+long_term_loans_and_advances+other_noncurrent_assets</t>
+  </si>
+  <si>
+    <t>net_revenue-total_cost_of_materials_consumed-total_purchases_of_stock_in_trade-total_changes_in_inventories_or_finished_goods-total_employee_benefit_expense-total_other_expenses</t>
+  </si>
+  <si>
+    <t>operating_profit+other_income-depreciation</t>
+  </si>
+  <si>
+    <t>TOTAL_PREV_REP</t>
   </si>
 </sst>
 </file>
@@ -1455,8 +1452,8 @@
   <dimension ref="A1:L196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J180" sqref="J180"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1574,7 +1571,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>20</v>
@@ -1597,7 +1594,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
@@ -1677,7 +1674,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>20</v>
@@ -1700,7 +1697,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>22</v>
@@ -2125,7 +2122,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -2137,7 +2134,7 @@
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
@@ -2149,12 +2146,12 @@
         <v>29</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2171,7 +2168,7 @@
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" t="s">
         <v>25</v>
@@ -2200,7 +2197,7 @@
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30" t="s">
         <v>25</v>
@@ -2229,7 +2226,7 @@
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F31" t="s">
         <v>25</v>
@@ -2258,7 +2255,7 @@
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
         <v>25</v>
@@ -2287,7 +2284,7 @@
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
         <v>25</v>
@@ -2316,7 +2313,7 @@
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
         <v>25</v>
@@ -2345,7 +2342,7 @@
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
         <v>25</v>
@@ -2374,7 +2371,7 @@
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
         <v>25</v>
@@ -2403,7 +2400,7 @@
         <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
         <v>25</v>
@@ -2432,7 +2429,7 @@
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F38" t="s">
         <v>25</v>
@@ -2461,7 +2458,7 @@
         <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s">
         <v>25</v>
@@ -2490,7 +2487,7 @@
         <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F40" t="s">
         <v>25</v>
@@ -2519,7 +2516,7 @@
         <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F41" t="s">
         <v>25</v>
@@ -2548,7 +2545,7 @@
         <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s">
         <v>25</v>
@@ -2565,7 +2562,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -2577,7 +2574,7 @@
         <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F43" t="s">
         <v>25</v>
@@ -2589,17 +2586,17 @@
         <v>29</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -2611,24 +2608,24 @@
         <v>13</v>
       </c>
       <c r="E45" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>78</v>
-      </c>
       <c r="J45" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -2640,7 +2637,7 @@
         <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s">
         <v>15</v>
@@ -2649,15 +2646,15 @@
         <v>16</v>
       </c>
       <c r="I46" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J46" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="25.5">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -2669,7 +2666,7 @@
         <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
         <v>15</v>
@@ -2678,15 +2675,15 @@
         <v>16</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="25.5">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -2698,7 +2695,7 @@
         <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F48" t="s">
         <v>15</v>
@@ -2707,15 +2704,15 @@
         <v>16</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
@@ -2727,7 +2724,7 @@
         <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F49" t="s">
         <v>15</v>
@@ -2736,15 +2733,15 @@
         <v>16</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -2756,7 +2753,7 @@
         <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F50" t="s">
         <v>15</v>
@@ -2765,15 +2762,15 @@
         <v>16</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
@@ -2785,7 +2782,7 @@
         <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F51" t="s">
         <v>15</v>
@@ -2794,15 +2791,15 @@
         <v>16</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
@@ -2814,7 +2811,7 @@
         <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F52" t="s">
         <v>15</v>
@@ -2823,15 +2820,15 @@
         <v>16</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
@@ -2843,7 +2840,7 @@
         <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" t="s">
         <v>15</v>
@@ -2852,15 +2849,15 @@
         <v>16</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
@@ -2872,7 +2869,7 @@
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F54" t="s">
         <v>15</v>
@@ -2881,15 +2878,15 @@
         <v>16</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
@@ -2901,7 +2898,7 @@
         <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F55" t="s">
         <v>15</v>
@@ -2910,15 +2907,15 @@
         <v>16</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
@@ -2930,7 +2927,7 @@
         <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F56" t="s">
         <v>15</v>
@@ -2939,10 +2936,10 @@
         <v>16</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2959,7 +2956,7 @@
         <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F57" t="s">
         <v>15</v>
@@ -2968,20 +2965,20 @@
         <v>16</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
@@ -2993,7 +2990,7 @@
         <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F59" t="s">
         <v>25</v>
@@ -3002,15 +2999,15 @@
         <v>16</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
@@ -3022,7 +3019,7 @@
         <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F60" t="s">
         <v>25</v>
@@ -3031,15 +3028,15 @@
         <v>16</v>
       </c>
       <c r="I60" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J60" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="J60" s="15" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="25.5">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
@@ -3051,7 +3048,7 @@
         <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F61" t="s">
         <v>25</v>
@@ -3060,15 +3057,15 @@
         <v>16</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="25.5">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
@@ -3080,7 +3077,7 @@
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F62" t="s">
         <v>25</v>
@@ -3089,15 +3086,15 @@
         <v>16</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
@@ -3109,7 +3106,7 @@
         <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F63" t="s">
         <v>25</v>
@@ -3118,15 +3115,15 @@
         <v>16</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J63" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
@@ -3138,7 +3135,7 @@
         <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F64" t="s">
         <v>25</v>
@@ -3147,15 +3144,15 @@
         <v>16</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
@@ -3167,7 +3164,7 @@
         <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F65" t="s">
         <v>25</v>
@@ -3176,15 +3173,15 @@
         <v>16</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J65" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
@@ -3196,7 +3193,7 @@
         <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F66" t="s">
         <v>25</v>
@@ -3205,15 +3202,15 @@
         <v>16</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J66" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -3225,7 +3222,7 @@
         <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F67" t="s">
         <v>25</v>
@@ -3234,15 +3231,15 @@
         <v>16</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J67" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
@@ -3254,7 +3251,7 @@
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F68" t="s">
         <v>25</v>
@@ -3263,15 +3260,15 @@
         <v>16</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J68" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
@@ -3283,7 +3280,7 @@
         <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F69" t="s">
         <v>25</v>
@@ -3292,15 +3289,15 @@
         <v>16</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J69" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
@@ -3312,7 +3309,7 @@
         <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F70" t="s">
         <v>25</v>
@@ -3321,10 +3318,10 @@
         <v>16</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J70" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3341,7 +3338,7 @@
         <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>99</v>
+        <v>277</v>
       </c>
       <c r="F71" t="s">
         <v>25</v>
@@ -3350,20 +3347,20 @@
         <v>16</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J71" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
@@ -3384,28 +3381,28 @@
         <v>16</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J73" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" t="s">
         <v>114</v>
       </c>
-      <c r="B74" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" t="s">
-        <v>115</v>
-      </c>
-      <c r="E74" t="s">
-        <v>116</v>
-      </c>
       <c r="F74" t="s">
         <v>15</v>
       </c>
@@ -3413,15 +3410,15 @@
         <v>16</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J74" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
@@ -3430,27 +3427,27 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
+        <v>113</v>
+      </c>
+      <c r="E75" t="s">
+        <v>116</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J75" s="18" t="s">
         <v>115</v>
-      </c>
-      <c r="E75" t="s">
-        <v>118</v>
-      </c>
-      <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I75" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="J75" s="18" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B76" t="s">
         <v>11</v>
@@ -3459,10 +3456,10 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E76" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F76" t="s">
         <v>15</v>
@@ -3471,15 +3468,15 @@
         <v>16</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J76" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
         <v>11</v>
@@ -3488,10 +3485,10 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E77" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F77" t="s">
         <v>15</v>
@@ -3500,15 +3497,15 @@
         <v>16</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
@@ -3517,10 +3514,10 @@
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E78" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F78" t="s">
         <v>15</v>
@@ -3529,15 +3526,15 @@
         <v>16</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
@@ -3546,10 +3543,10 @@
         <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E79" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F79" t="s">
         <v>15</v>
@@ -3558,15 +3555,15 @@
         <v>16</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J79" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
@@ -3575,10 +3572,10 @@
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E80" t="s">
-        <v>128</v>
+        <v>274</v>
       </c>
       <c r="F80" t="s">
         <v>15</v>
@@ -3587,21 +3584,21 @@
         <v>16</v>
       </c>
       <c r="I80" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J80" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H81" s="13"/>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
@@ -3613,7 +3610,7 @@
         <v>13</v>
       </c>
       <c r="E82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F82" t="s">
         <v>25</v>
@@ -3622,28 +3619,28 @@
         <v>16</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>113</v>
+      </c>
+      <c r="E83" t="s">
         <v>114</v>
       </c>
-      <c r="B83" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" t="s">
-        <v>115</v>
-      </c>
-      <c r="E83" t="s">
-        <v>116</v>
-      </c>
       <c r="F83" t="s">
         <v>25</v>
       </c>
@@ -3651,15 +3648,15 @@
         <v>16</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J83" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
         <v>11</v>
@@ -3668,27 +3665,27 @@
         <v>12</v>
       </c>
       <c r="D84" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" t="s">
+        <v>116</v>
+      </c>
+      <c r="F84" t="s">
+        <v>25</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J84" s="18" t="s">
         <v>115</v>
-      </c>
-      <c r="E84" t="s">
-        <v>118</v>
-      </c>
-      <c r="F84" t="s">
-        <v>25</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I84" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="J84" s="18" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
@@ -3697,10 +3694,10 @@
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E85" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F85" t="s">
         <v>25</v>
@@ -3709,15 +3706,15 @@
         <v>16</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J85" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
@@ -3726,10 +3723,10 @@
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E86" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F86" t="s">
         <v>25</v>
@@ -3738,15 +3735,15 @@
         <v>16</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J86" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B87" t="s">
         <v>11</v>
@@ -3755,10 +3752,10 @@
         <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E87" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F87" t="s">
         <v>25</v>
@@ -3767,15 +3764,15 @@
         <v>16</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J87" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
@@ -3784,10 +3781,10 @@
         <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E88" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F88" t="s">
         <v>25</v>
@@ -3796,15 +3793,15 @@
         <v>16</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J88" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
@@ -3813,10 +3810,10 @@
         <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E89" t="s">
-        <v>128</v>
+        <v>274</v>
       </c>
       <c r="F89" t="s">
         <v>25</v>
@@ -3825,49 +3822,49 @@
         <v>16</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J89" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="30">
       <c r="A91" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E91" t="s">
+        <v>130</v>
+      </c>
+      <c r="F91" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B91" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E91" t="s">
-        <v>133</v>
-      </c>
-      <c r="F91" t="s">
-        <v>15</v>
-      </c>
-      <c r="H91" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I91" s="13" t="s">
-        <v>134</v>
-      </c>
       <c r="J91" s="22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B92" s="20" t="s">
         <v>11</v>
@@ -3876,27 +3873,27 @@
         <v>12</v>
       </c>
       <c r="D92" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E92" t="s">
+        <v>133</v>
+      </c>
+      <c r="F92" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J92" s="23" t="s">
         <v>132</v>
-      </c>
-      <c r="E92" t="s">
-        <v>136</v>
-      </c>
-      <c r="F92" t="s">
-        <v>15</v>
-      </c>
-      <c r="H92" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I92" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="J92" s="23" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="30">
       <c r="A93" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B93" s="20" t="s">
         <v>11</v>
@@ -3905,10 +3902,10 @@
         <v>12</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E93" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F93" t="s">
         <v>15</v>
@@ -3917,15 +3914,15 @@
         <v>16</v>
       </c>
       <c r="I93" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J93" s="23" t="s">
         <v>134</v>
-      </c>
-      <c r="J93" s="23" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="30">
       <c r="A94" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B94" s="20" t="s">
         <v>11</v>
@@ -3934,10 +3931,10 @@
         <v>12</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E94" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F94" t="s">
         <v>15</v>
@@ -3946,15 +3943,15 @@
         <v>16</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J94" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B95" s="20" t="s">
         <v>11</v>
@@ -3963,10 +3960,10 @@
         <v>12</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E95" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F95" t="s">
         <v>15</v>
@@ -3975,15 +3972,15 @@
         <v>16</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J95" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="30">
       <c r="A96" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B96" s="20" t="s">
         <v>11</v>
@@ -3992,10 +3989,10 @@
         <v>12</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E96" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F96" t="s">
         <v>15</v>
@@ -4004,15 +4001,15 @@
         <v>16</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J96" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="50.25" customHeight="1">
       <c r="A97" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
@@ -4021,10 +4018,10 @@
         <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E97" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F97" t="s">
         <v>15</v>
@@ -4033,15 +4030,15 @@
         <v>16</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J97" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
@@ -4050,10 +4047,10 @@
         <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E98" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F98" t="s">
         <v>15</v>
@@ -4062,15 +4059,15 @@
         <v>16</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J98" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
@@ -4079,10 +4076,10 @@
         <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E99" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F99" t="s">
         <v>15</v>
@@ -4091,15 +4088,15 @@
         <v>16</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J99" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
@@ -4108,10 +4105,10 @@
         <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E100" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F100" t="s">
         <v>15</v>
@@ -4120,15 +4117,15 @@
         <v>16</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J100" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B101" t="s">
         <v>11</v>
@@ -4137,10 +4134,10 @@
         <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E101" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F101" t="s">
         <v>15</v>
@@ -4149,15 +4146,15 @@
         <v>16</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J101" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
@@ -4166,10 +4163,10 @@
         <v>12</v>
       </c>
       <c r="D102" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E102" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F102" t="s">
         <v>15</v>
@@ -4178,15 +4175,15 @@
         <v>16</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J102" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="30">
       <c r="A103" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B103" t="s">
         <v>11</v>
@@ -4195,10 +4192,10 @@
         <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E103" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F103" t="s">
         <v>15</v>
@@ -4207,15 +4204,15 @@
         <v>16</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J103" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
@@ -4224,10 +4221,10 @@
         <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E104" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F104" t="s">
         <v>15</v>
@@ -4236,15 +4233,15 @@
         <v>16</v>
       </c>
       <c r="I104" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J104" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B105" t="s">
         <v>11</v>
@@ -4253,10 +4250,10 @@
         <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E105" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F105" t="s">
         <v>15</v>
@@ -4265,15 +4262,15 @@
         <v>16</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
@@ -4282,10 +4279,10 @@
         <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E106" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F106" t="s">
         <v>15</v>
@@ -4294,15 +4291,15 @@
         <v>16</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
@@ -4311,10 +4308,10 @@
         <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E107" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F107" t="s">
         <v>15</v>
@@ -4323,15 +4320,15 @@
         <v>16</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
@@ -4340,10 +4337,10 @@
         <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E108" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F108" t="s">
         <v>15</v>
@@ -4352,15 +4349,15 @@
         <v>16</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
@@ -4369,10 +4366,10 @@
         <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E109" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F109" t="s">
         <v>15</v>
@@ -4381,15 +4378,15 @@
         <v>16</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J109" s="26" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
@@ -4398,10 +4395,10 @@
         <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E110" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F110" t="s">
         <v>15</v>
@@ -4410,15 +4407,15 @@
         <v>16</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J110" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B111" t="s">
         <v>11</v>
@@ -4427,10 +4424,10 @@
         <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E111" t="s">
-        <v>251</v>
+        <v>170</v>
       </c>
       <c r="F111" t="s">
         <v>15</v>
@@ -4439,15 +4436,15 @@
         <v>16</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J111" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="14.25" customHeight="1">
       <c r="A112" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B112" t="s">
         <v>11</v>
@@ -4456,10 +4453,10 @@
         <v>12</v>
       </c>
       <c r="D112" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E112" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="F112" t="s">
         <v>15</v>
@@ -4468,28 +4465,28 @@
         <v>16</v>
       </c>
       <c r="I112" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J112" s="27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
+        <v>171</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s">
+        <v>129</v>
+      </c>
+      <c r="E113" t="s">
         <v>172</v>
       </c>
-      <c r="B113" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" t="s">
-        <v>132</v>
-      </c>
-      <c r="E113" t="s">
-        <v>173</v>
-      </c>
       <c r="F113" t="s">
         <v>15</v>
       </c>
@@ -4497,15 +4494,15 @@
         <v>16</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J113" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
@@ -4514,10 +4511,10 @@
         <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="F114" t="s">
         <v>15</v>
@@ -4526,15 +4523,15 @@
         <v>16</v>
       </c>
       <c r="I114" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J114" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B115" t="s">
         <v>11</v>
@@ -4543,10 +4540,10 @@
         <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E115" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F115" t="s">
         <v>15</v>
@@ -4555,15 +4552,15 @@
         <v>16</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J115" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="25.5">
       <c r="A116" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B116" t="s">
         <v>11</v>
@@ -4572,10 +4569,10 @@
         <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E116" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F116" t="s">
         <v>15</v>
@@ -4584,15 +4581,15 @@
         <v>16</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J116" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B117" t="s">
         <v>11</v>
@@ -4601,10 +4598,10 @@
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E117" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -4613,15 +4610,15 @@
         <v>16</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J117" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B118" t="s">
         <v>11</v>
@@ -4630,10 +4627,10 @@
         <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E118" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F118" t="s">
         <v>15</v>
@@ -4642,15 +4639,15 @@
         <v>16</v>
       </c>
       <c r="I118" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J118" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B119" t="s">
         <v>11</v>
@@ -4659,10 +4656,10 @@
         <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E119" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F119" t="s">
         <v>15</v>
@@ -4671,15 +4668,15 @@
         <v>16</v>
       </c>
       <c r="I119" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
@@ -4688,10 +4685,10 @@
         <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E120" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F120" t="s">
         <v>15</v>
@@ -4700,15 +4697,15 @@
         <v>16</v>
       </c>
       <c r="I120" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B121" t="s">
         <v>11</v>
@@ -4717,10 +4714,10 @@
         <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E121" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -4729,15 +4726,15 @@
         <v>16</v>
       </c>
       <c r="I121" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J121" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="25.5">
       <c r="A122" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
@@ -4746,10 +4743,10 @@
         <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E122" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F122" t="s">
         <v>15</v>
@@ -4758,15 +4755,15 @@
         <v>16</v>
       </c>
       <c r="I122" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J122" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="25.5">
       <c r="A123" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B123" t="s">
         <v>11</v>
@@ -4775,10 +4772,10 @@
         <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E123" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F123" t="s">
         <v>15</v>
@@ -4787,15 +4784,15 @@
         <v>16</v>
       </c>
       <c r="I123" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J123" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B124" t="s">
         <v>11</v>
@@ -4804,10 +4801,10 @@
         <v>12</v>
       </c>
       <c r="D124" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E124" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F124" t="s">
         <v>15</v>
@@ -4816,50 +4813,50 @@
         <v>16</v>
       </c>
       <c r="I124" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J124" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J125" s="15"/>
     </row>
     <row r="126" spans="1:10" ht="30">
       <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E126" t="s">
+        <v>192</v>
+      </c>
+      <c r="F126" t="s">
+        <v>25</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B126" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E126" t="s">
-        <v>195</v>
-      </c>
-      <c r="F126" t="s">
-        <v>25</v>
-      </c>
-      <c r="H126" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I126" s="13" t="s">
-        <v>134</v>
-      </c>
       <c r="J126" s="22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B127" s="20" t="s">
         <v>11</v>
@@ -4868,27 +4865,27 @@
         <v>12</v>
       </c>
       <c r="D127" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E127" t="s">
+        <v>193</v>
+      </c>
+      <c r="F127" t="s">
+        <v>25</v>
+      </c>
+      <c r="H127" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J127" s="23" t="s">
         <v>132</v>
-      </c>
-      <c r="E127" t="s">
-        <v>196</v>
-      </c>
-      <c r="F127" t="s">
-        <v>25</v>
-      </c>
-      <c r="H127" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I127" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="J127" s="23" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="30">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B128" s="20" t="s">
         <v>11</v>
@@ -4897,10 +4894,10 @@
         <v>12</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E128" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F128" t="s">
         <v>25</v>
@@ -4909,15 +4906,15 @@
         <v>16</v>
       </c>
       <c r="I128" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J128" s="23" t="s">
         <v>134</v>
-      </c>
-      <c r="J128" s="23" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="30">
       <c r="A129" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B129" s="20" t="s">
         <v>11</v>
@@ -4926,10 +4923,10 @@
         <v>12</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E129" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F129" t="s">
         <v>25</v>
@@ -4938,15 +4935,15 @@
         <v>16</v>
       </c>
       <c r="I129" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J129" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B130" s="20" t="s">
         <v>11</v>
@@ -4955,10 +4952,10 @@
         <v>12</v>
       </c>
       <c r="D130" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F130" t="s">
         <v>25</v>
@@ -4967,15 +4964,15 @@
         <v>16</v>
       </c>
       <c r="I130" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J130" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="30">
       <c r="A131" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B131" s="20" t="s">
         <v>11</v>
@@ -4984,10 +4981,10 @@
         <v>12</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E131" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F131" t="s">
         <v>25</v>
@@ -4996,15 +4993,15 @@
         <v>16</v>
       </c>
       <c r="I131" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J131" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B132" t="s">
         <v>11</v>
@@ -5013,10 +5010,10 @@
         <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E132" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F132" t="s">
         <v>25</v>
@@ -5025,15 +5022,15 @@
         <v>16</v>
       </c>
       <c r="I132" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J132" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B133" t="s">
         <v>11</v>
@@ -5042,10 +5039,10 @@
         <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E133" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F133" t="s">
         <v>25</v>
@@ -5054,15 +5051,15 @@
         <v>16</v>
       </c>
       <c r="I133" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J133" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B134" t="s">
         <v>11</v>
@@ -5071,10 +5068,10 @@
         <v>12</v>
       </c>
       <c r="D134" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E134" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F134" t="s">
         <v>25</v>
@@ -5083,15 +5080,15 @@
         <v>16</v>
       </c>
       <c r="I134" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J134" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B135" t="s">
         <v>11</v>
@@ -5100,10 +5097,10 @@
         <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E135" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F135" t="s">
         <v>25</v>
@@ -5112,15 +5109,15 @@
         <v>16</v>
       </c>
       <c r="I135" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J135" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B136" t="s">
         <v>11</v>
@@ -5129,10 +5126,10 @@
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E136" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F136" t="s">
         <v>25</v>
@@ -5141,15 +5138,15 @@
         <v>16</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J136" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B137" t="s">
         <v>11</v>
@@ -5158,10 +5155,10 @@
         <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E137" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F137" t="s">
         <v>25</v>
@@ -5170,15 +5167,15 @@
         <v>16</v>
       </c>
       <c r="I137" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J137" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="30">
       <c r="A138" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B138" t="s">
         <v>11</v>
@@ -5187,10 +5184,10 @@
         <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E138" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F138" t="s">
         <v>25</v>
@@ -5199,15 +5196,15 @@
         <v>16</v>
       </c>
       <c r="I138" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J138" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
@@ -5216,10 +5213,10 @@
         <v>12</v>
       </c>
       <c r="D139" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E139" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F139" t="s">
         <v>25</v>
@@ -5228,15 +5225,15 @@
         <v>16</v>
       </c>
       <c r="I139" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J139" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B140" t="s">
         <v>11</v>
@@ -5245,10 +5242,10 @@
         <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E140" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F140" t="s">
         <v>25</v>
@@ -5257,15 +5254,15 @@
         <v>16</v>
       </c>
       <c r="I140" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B141" t="s">
         <v>11</v>
@@ -5274,10 +5271,10 @@
         <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E141" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F141" t="s">
         <v>25</v>
@@ -5286,15 +5283,15 @@
         <v>16</v>
       </c>
       <c r="I141" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B142" t="s">
         <v>11</v>
@@ -5303,10 +5300,10 @@
         <v>12</v>
       </c>
       <c r="D142" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E142" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F142" t="s">
         <v>25</v>
@@ -5315,15 +5312,15 @@
         <v>16</v>
       </c>
       <c r="I142" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B143" t="s">
         <v>11</v>
@@ -5332,10 +5329,10 @@
         <v>12</v>
       </c>
       <c r="D143" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E143" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F143" t="s">
         <v>25</v>
@@ -5344,15 +5341,15 @@
         <v>16</v>
       </c>
       <c r="I143" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B144" t="s">
         <v>11</v>
@@ -5361,10 +5358,10 @@
         <v>12</v>
       </c>
       <c r="D144" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E144" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F144" t="s">
         <v>25</v>
@@ -5373,15 +5370,15 @@
         <v>16</v>
       </c>
       <c r="I144" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J144" s="26" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B145" t="s">
         <v>11</v>
@@ -5390,10 +5387,10 @@
         <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E145" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F145" t="s">
         <v>25</v>
@@ -5402,15 +5399,15 @@
         <v>16</v>
       </c>
       <c r="I145" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J145" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B146" t="s">
         <v>11</v>
@@ -5419,10 +5416,10 @@
         <v>12</v>
       </c>
       <c r="D146" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E146" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="F146" t="s">
         <v>25</v>
@@ -5431,15 +5428,15 @@
         <v>16</v>
       </c>
       <c r="I146" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="J146" s="15" t="s">
-        <v>176</v>
+        <v>131</v>
+      </c>
+      <c r="J146" s="27" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B147" t="s">
         <v>11</v>
@@ -5448,10 +5445,10 @@
         <v>12</v>
       </c>
       <c r="D147" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E147" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="F147" t="s">
         <v>25</v>
@@ -5460,15 +5457,15 @@
         <v>16</v>
       </c>
       <c r="I147" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="J147" s="27" t="s">
-        <v>171</v>
+        <v>131</v>
+      </c>
+      <c r="J147" s="15" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B148" t="s">
         <v>11</v>
@@ -5477,10 +5474,10 @@
         <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E148" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F148" t="s">
         <v>25</v>
@@ -5489,15 +5486,15 @@
         <v>16</v>
       </c>
       <c r="I148" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J148" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B149" t="s">
         <v>11</v>
@@ -5506,10 +5503,10 @@
         <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E149" t="s">
-        <v>212</v>
+        <v>276</v>
       </c>
       <c r="F149" t="s">
         <v>25</v>
@@ -5518,15 +5515,15 @@
         <v>16</v>
       </c>
       <c r="I149" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J149" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:12">
       <c r="A150" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B150" t="s">
         <v>11</v>
@@ -5535,10 +5532,10 @@
         <v>12</v>
       </c>
       <c r="D150" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E150" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F150" t="s">
         <v>25</v>
@@ -5547,15 +5544,15 @@
         <v>16</v>
       </c>
       <c r="I150" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J150" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="25.5">
       <c r="A151" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B151" t="s">
         <v>11</v>
@@ -5564,10 +5561,10 @@
         <v>12</v>
       </c>
       <c r="D151" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E151" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F151" t="s">
         <v>25</v>
@@ -5576,15 +5573,15 @@
         <v>16</v>
       </c>
       <c r="I151" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J151" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B152" t="s">
         <v>11</v>
@@ -5593,10 +5590,10 @@
         <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E152" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F152" t="s">
         <v>25</v>
@@ -5605,15 +5602,15 @@
         <v>16</v>
       </c>
       <c r="I152" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J152" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B153" t="s">
         <v>11</v>
@@ -5622,10 +5619,10 @@
         <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E153" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F153" t="s">
         <v>25</v>
@@ -5634,15 +5631,15 @@
         <v>16</v>
       </c>
       <c r="I153" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J153" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B154" t="s">
         <v>11</v>
@@ -5651,10 +5648,10 @@
         <v>12</v>
       </c>
       <c r="D154" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E154" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F154" t="s">
         <v>25</v>
@@ -5663,15 +5660,15 @@
         <v>16</v>
       </c>
       <c r="I154" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B155" t="s">
         <v>11</v>
@@ -5680,10 +5677,10 @@
         <v>12</v>
       </c>
       <c r="D155" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E155" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F155" t="s">
         <v>25</v>
@@ -5692,15 +5689,15 @@
         <v>16</v>
       </c>
       <c r="I155" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B156" t="s">
         <v>11</v>
@@ -5709,10 +5706,10 @@
         <v>12</v>
       </c>
       <c r="D156" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E156" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F156" t="s">
         <v>25</v>
@@ -5721,15 +5718,15 @@
         <v>16</v>
       </c>
       <c r="I156" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J156" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="25.5">
       <c r="A157" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B157" t="s">
         <v>11</v>
@@ -5738,10 +5735,10 @@
         <v>12</v>
       </c>
       <c r="D157" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E157" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F157" t="s">
         <v>25</v>
@@ -5750,15 +5747,15 @@
         <v>16</v>
       </c>
       <c r="I157" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J157" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="25.5">
       <c r="A158" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
@@ -5767,10 +5764,10 @@
         <v>12</v>
       </c>
       <c r="D158" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E158" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F158" t="s">
         <v>25</v>
@@ -5779,15 +5776,15 @@
         <v>16</v>
       </c>
       <c r="I158" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J158" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="159" spans="1:12">
       <c r="A159" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B159" t="s">
         <v>11</v>
@@ -5796,10 +5793,10 @@
         <v>12</v>
       </c>
       <c r="D159" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E159" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F159" t="s">
         <v>25</v>
@@ -5808,15 +5805,15 @@
         <v>16</v>
       </c>
       <c r="I159" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J159" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B160" s="29"/>
       <c r="C160" s="29"/>
@@ -5831,7 +5828,7 @@
     </row>
     <row r="161" spans="1:12" ht="30">
       <c r="A161" s="31" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B161" s="29" t="s">
         <v>11</v>
@@ -5840,10 +5837,10 @@
         <v>12</v>
       </c>
       <c r="D161" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E161" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F161" s="29" t="s">
         <v>15</v>
@@ -5853,17 +5850,17 @@
         <v>16</v>
       </c>
       <c r="I161" s="32" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="J161" s="31" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K161" s="29"/>
       <c r="L161" s="29"/>
     </row>
     <row r="162" spans="1:12" ht="30">
       <c r="A162" s="31" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B162" s="29" t="s">
         <v>11</v>
@@ -5872,10 +5869,10 @@
         <v>12</v>
       </c>
       <c r="D162" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E162" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F162" s="29" t="s">
         <v>15</v>
@@ -5885,17 +5882,17 @@
         <v>16</v>
       </c>
       <c r="I162" s="32" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="J162" s="31" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K162" s="29"/>
       <c r="L162" s="29"/>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="28" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B163" s="29"/>
       <c r="C163" s="29"/>
@@ -5910,7 +5907,7 @@
     </row>
     <row r="164" spans="1:12" ht="30">
       <c r="A164" s="31" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B164" s="29" t="s">
         <v>11</v>
@@ -5919,10 +5916,10 @@
         <v>12</v>
       </c>
       <c r="D164" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E164" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F164" s="29" t="s">
         <v>25</v>
@@ -5932,17 +5929,17 @@
         <v>16</v>
       </c>
       <c r="I164" s="32" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="J164" s="31" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K164" s="29"/>
       <c r="L164" s="29"/>
     </row>
     <row r="165" spans="1:12" ht="30">
       <c r="A165" s="31" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B165" s="29" t="s">
         <v>11</v>
@@ -5951,10 +5948,10 @@
         <v>12</v>
       </c>
       <c r="D165" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E165" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F165" s="29" t="s">
         <v>25</v>
@@ -5964,22 +5961,22 @@
         <v>16</v>
       </c>
       <c r="I165" s="32" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="J165" s="31" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K165" s="29"/>
       <c r="L165" s="29"/>
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="25.5">
       <c r="A167" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B167" t="s">
         <v>11</v>
@@ -5991,24 +5988,24 @@
         <v>13</v>
       </c>
       <c r="E167" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F167" t="s">
+        <v>219</v>
+      </c>
+      <c r="H167" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I167" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="J167" s="14" t="s">
         <v>222</v>
-      </c>
-      <c r="H167" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I167" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="J167" s="14" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I168" s="14"/>
     </row>
@@ -6029,10 +6026,10 @@
         <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H169" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I169" s="1" t="s">
         <v>10</v>
@@ -6055,10 +6052,10 @@
         <v>18</v>
       </c>
       <c r="F170" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H170" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I170" t="s">
         <v>17</v>
@@ -6066,7 +6063,7 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B171" t="s">
         <v>11</v>
@@ -6075,24 +6072,24 @@
         <v>12</v>
       </c>
       <c r="D171" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E171" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F171" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H171" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="1:12">
       <c r="A172" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B172" t="s">
         <v>11</v>
@@ -6101,24 +6098,24 @@
         <v>12</v>
       </c>
       <c r="D172" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E172" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F172" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H172" t="s">
+        <v>227</v>
+      </c>
+      <c r="I172" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="I172" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="30">
       <c r="A173" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B173" t="s">
         <v>11</v>
@@ -6127,24 +6124,24 @@
         <v>12</v>
       </c>
       <c r="D173" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E173" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F173" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H173" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="30">
       <c r="A174" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B174" t="s">
         <v>11</v>
@@ -6153,24 +6150,24 @@
         <v>12</v>
       </c>
       <c r="D174" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E174" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F174" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H174" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="175" spans="1:12">
       <c r="A175" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B175" t="s">
         <v>11</v>
@@ -6179,24 +6176,24 @@
         <v>12</v>
       </c>
       <c r="D175" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E175" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F175" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H175" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="30">
       <c r="A176" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B176" t="s">
         <v>11</v>
@@ -6208,21 +6205,21 @@
         <v>13</v>
       </c>
       <c r="E176" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F176" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H176" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="30">
       <c r="A177" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B177" t="s">
         <v>11</v>
@@ -6234,21 +6231,21 @@
         <v>13</v>
       </c>
       <c r="E177" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F177" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H177" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="30">
       <c r="A178" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B178" t="s">
         <v>11</v>
@@ -6260,115 +6257,115 @@
         <v>13</v>
       </c>
       <c r="E178" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F178" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H178" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I178" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="45">
       <c r="A179" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B179" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C179" t="s">
         <v>12</v>
       </c>
       <c r="D179" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E179" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F179" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H179" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I179" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="75">
       <c r="A180" s="29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B180" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C180" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="D180" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="E180" t="s">
+        <v>261</v>
+      </c>
+      <c r="F180" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="C180" s="29" t="s">
+      <c r="H180" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I180" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="D180" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="E180" t="s">
-        <v>266</v>
-      </c>
-      <c r="F180" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="H180" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I180" s="29" t="s">
-        <v>223</v>
-      </c>
       <c r="J180" s="30" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K180" s="29"/>
       <c r="L180" s="29"/>
     </row>
     <row r="181" spans="1:12">
       <c r="A181" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C181" t="s">
         <v>12</v>
       </c>
       <c r="D181" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F181" s="29" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G181" s="16"/>
       <c r="H181" s="33" t="s">
         <v>16</v>
       </c>
       <c r="I181" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="182" spans="1:12">
       <c r="A182" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C182" t="s">
         <v>12</v>
       </c>
       <c r="D182" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F182" s="29" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G182" s="16"/>
       <c r="H182" s="33" t="s">
         <v>16</v>
       </c>
       <c r="I182" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -6421,6 +6418,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="aeca75af-2390-46f4-9168-0f31f2cf789f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6429,7 +6437,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010020AB8D80EE38534F9519E3E4DE1A635C" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2fb15c294a817fdcd94150ccc0adbbf4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca" xmlns:ns3="aeca75af-2390-46f4-9168-0f31f2cf789f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b55b215397fc5f6eb14b023f8b46d6e1" ns2:_="" ns3:_="">
     <xsd:import namespace="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca"/>
@@ -6672,18 +6680,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="aeca75af-2390-46f4-9168-0f31f2cf789f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC97621E-DFBE-4206-BCBD-16BD065E3224}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aeca75af-2390-46f4-9168-0f31f2cf789f"/>
+    <ds:schemaRef ds:uri="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{769B1AFD-366A-4608-8AF2-0173EB0137EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -6691,7 +6699,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6BFA16C-B0EC-4649-8235-F39CCC119840}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6708,15 +6716,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC97621E-DFBE-4206-BCBD-16BD065E3224}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aeca75af-2390-46f4-9168-0f31f2cf789f"/>
-    <ds:schemaRef ds:uri="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>